--- a/raw-data.xlsx
+++ b/raw-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdup\Documents\R\nhl-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FD009948-A0E9-4734-904C-55CBB358C2F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1F95785-9B3E-4BB5-951E-720E152AB1E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
@@ -24,99 +24,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="72">
-  <si>
-    <t>AvAge</t>
-  </si>
-  <si>
-    <t>GP</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>PTS</t>
-  </si>
-  <si>
-    <t>PTS%</t>
-  </si>
-  <si>
-    <t>GF</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>SOW</t>
-  </si>
-  <si>
-    <t>SOL</t>
-  </si>
-  <si>
-    <t>SRS</t>
-  </si>
-  <si>
-    <t>SOS</t>
-  </si>
-  <si>
-    <t>TG/G</t>
-  </si>
-  <si>
-    <t>EVGF</t>
-  </si>
-  <si>
-    <t>EVGA</t>
-  </si>
-  <si>
-    <t>PP</t>
-  </si>
-  <si>
-    <t>PPO</t>
-  </si>
-  <si>
-    <t>PP%</t>
-  </si>
-  <si>
-    <t>PPA</t>
-  </si>
-  <si>
-    <t>PPOA</t>
-  </si>
-  <si>
-    <t>PK%</t>
-  </si>
-  <si>
-    <t>SH</t>
-  </si>
-  <si>
-    <t>SHA</t>
-  </si>
-  <si>
-    <t>PIM/G</t>
-  </si>
-  <si>
-    <t>oPIM/G</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>S%</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>SV%</t>
-  </si>
-  <si>
-    <t>PDO</t>
-  </si>
   <si>
     <t>Florida Panthers</t>
   </si>
@@ -166,7 +73,7 @@
     <t>League Average</t>
   </si>
   <si>
-    <t>YEAR</t>
+    <t>team</t>
   </si>
   <si>
     <t>Tampa Bay Lightning</t>
@@ -199,7 +106,7 @@
     <t>San Jose Sharks</t>
   </si>
   <si>
-    <t>Rank</t>
+    <t>rank</t>
   </si>
   <si>
     <t>Washington Capitals</t>
@@ -217,19 +124,10 @@
     <t>Atlanta Thrashers</t>
   </si>
   <si>
-    <t>Playoffs?</t>
-  </si>
-  <si>
     <t>Anaheim Ducks</t>
   </si>
   <si>
     <t>Pittsburgh Penguins</t>
-  </si>
-  <si>
-    <t>Champion</t>
-  </si>
-  <si>
-    <t>Runner-Up</t>
   </si>
   <si>
     <t>Vegas Golden Knights</t>
@@ -238,7 +136,109 @@
     <t>Mighty Ducks of Anaheim</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>pdo</t>
+  </si>
+  <si>
+    <t>sv_percent</t>
+  </si>
+  <si>
+    <t>shots_against</t>
+  </si>
+  <si>
+    <t>shot_percent</t>
+  </si>
+  <si>
+    <t>o_pm_game</t>
+  </si>
+  <si>
+    <t>pm_game</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>pk_perc</t>
+  </si>
+  <si>
+    <t>pp_perc</t>
+  </si>
+  <si>
+    <t>pp</t>
+  </si>
+  <si>
+    <t>goal_game</t>
+  </si>
+  <si>
+    <t>strength_of_sched</t>
+  </si>
+  <si>
+    <t>simp_rat_sys</t>
+  </si>
+  <si>
+    <t>pts_perc</t>
+  </si>
+  <si>
+    <t>pts</t>
+  </si>
+  <si>
+    <t>ol</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>gp</t>
+  </si>
+  <si>
+    <t>av_age</t>
+  </si>
+  <si>
+    <t>playoff</t>
+  </si>
+  <si>
+    <t>champ</t>
+  </si>
+  <si>
+    <t>runner</t>
+  </si>
+  <si>
+    <t>gf</t>
+  </si>
+  <si>
+    <t>ga</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>sol</t>
+  </si>
+  <si>
+    <t>evga</t>
+  </si>
+  <si>
+    <t>evgf</t>
+  </si>
+  <si>
+    <t>ppo</t>
+  </si>
+  <si>
+    <t>ppoa</t>
+  </si>
+  <si>
+    <t>ppa</t>
+  </si>
+  <si>
+    <t>sha</t>
+  </si>
+  <si>
+    <t>shots</t>
   </si>
 </sst>
 </file>
@@ -1160,9 +1160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N405" sqref="N405"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,122 +1197,122 @@
     <col min="36" max="36" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="AD1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI1" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI1" s="15" t="s">
-        <v>64</v>
-      </c>
       <c r="AJ1" s="27" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AK1" s="27" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
@@ -1740,7 +1740,7 @@
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
@@ -1850,7 +1850,7 @@
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
@@ -1960,7 +1960,7 @@
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
@@ -2174,7 +2174,7 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
@@ -2709,7 +2709,7 @@
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4">
         <v>15</v>
@@ -2923,7 +2923,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4">
         <v>17</v>
@@ -3137,7 +3137,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B19" s="4">
         <v>18</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4">
         <v>19</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4">
         <v>21</v>
@@ -3565,7 +3565,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4">
         <v>22</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B24" s="4">
         <v>23</v>
@@ -3779,7 +3779,7 @@
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4">
         <v>24</v>
@@ -3886,7 +3886,7 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B26" s="4">
         <v>25</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4">
         <v>26</v>
@@ -4100,7 +4100,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B28" s="4">
         <v>27</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B29" s="4">
         <v>28</v>
@@ -4314,7 +4314,7 @@
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B30" s="4">
         <v>29</v>
@@ -4421,7 +4421,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4">
         <v>30</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B32" s="4">
         <v>31</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3">
@@ -4730,7 +4730,7 @@
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>2</v>
@@ -4947,7 +4947,7 @@
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4">
         <v>3</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B37" s="4">
         <v>4</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4">
         <v>5</v>
@@ -5268,7 +5268,7 @@
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B39" s="4">
         <v>6</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4">
         <v>7</v>
@@ -5482,7 +5482,7 @@
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B41" s="4">
         <v>8</v>
@@ -5589,7 +5589,7 @@
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B42" s="4">
         <v>9</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B43" s="4">
         <v>10</v>
@@ -5803,7 +5803,7 @@
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B44" s="4">
         <v>11</v>
@@ -5910,7 +5910,7 @@
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B45" s="4">
         <v>12</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B46" s="4">
         <v>13</v>
@@ -6124,7 +6124,7 @@
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B47" s="4">
         <v>14</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B48" s="4">
         <v>15</v>
@@ -6338,7 +6338,7 @@
     </row>
     <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B49" s="4">
         <v>16</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B50" s="4">
         <v>17</v>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B51" s="4">
         <v>18</v>
@@ -6662,7 +6662,7 @@
     </row>
     <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B52" s="4">
         <v>19</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B53" s="4">
         <v>20</v>
@@ -6876,7 +6876,7 @@
     </row>
     <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B54" s="4">
         <v>21</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B55" s="4">
         <v>22</v>
@@ -7090,7 +7090,7 @@
     </row>
     <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B56" s="4">
         <v>23</v>
@@ -7197,7 +7197,7 @@
     </row>
     <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B57" s="4">
         <v>24</v>
@@ -7304,7 +7304,7 @@
     </row>
     <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B58" s="4">
         <v>25</v>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B59" s="4">
         <v>26</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B60" s="4">
         <v>27</v>
@@ -7625,7 +7625,7 @@
     </row>
     <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B61" s="4">
         <v>28</v>
@@ -7732,7 +7732,7 @@
     </row>
     <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B62" s="4">
         <v>29</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B63" s="4">
         <v>30</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="6">
@@ -8041,7 +8041,7 @@
     </row>
     <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B65" s="4">
         <v>1</v>
@@ -8148,7 +8148,7 @@
     </row>
     <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B66" s="4">
         <v>2</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B67" s="4">
         <v>3</v>
@@ -8362,7 +8362,7 @@
     </row>
     <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B68" s="4">
         <v>4</v>
@@ -8472,7 +8472,7 @@
     </row>
     <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B69" s="4">
         <v>5</v>
@@ -8579,7 +8579,7 @@
     </row>
     <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B70" s="4">
         <v>6</v>
@@ -8686,7 +8686,7 @@
     </row>
     <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B71" s="4">
         <v>7</v>
@@ -8793,7 +8793,7 @@
     </row>
     <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B72" s="4">
         <v>8</v>
@@ -8900,7 +8900,7 @@
     </row>
     <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B73" s="4">
         <v>9</v>
@@ -9007,7 +9007,7 @@
     </row>
     <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B74" s="4">
         <v>10</v>
@@ -9114,7 +9114,7 @@
     </row>
     <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B75" s="4">
         <v>11</v>
@@ -9224,7 +9224,7 @@
     </row>
     <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B76" s="4">
         <v>12</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B77" s="4">
         <v>13</v>
@@ -9438,7 +9438,7 @@
     </row>
     <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B78" s="4">
         <v>14</v>
@@ -9545,7 +9545,7 @@
     </row>
     <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B79" s="4">
         <v>15</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B80" s="4">
         <v>16</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B81" s="4">
         <v>17</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B82" s="4">
         <v>18</v>
@@ -9973,7 +9973,7 @@
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B83" s="4">
         <v>19</v>
@@ -10080,7 +10080,7 @@
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B84" s="4">
         <v>20</v>
@@ -10187,7 +10187,7 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B85" s="4">
         <v>21</v>
@@ -10294,7 +10294,7 @@
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B86" s="4">
         <v>22</v>
@@ -10401,7 +10401,7 @@
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B87" s="4">
         <v>23</v>
@@ -10508,7 +10508,7 @@
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B88" s="4">
         <v>24</v>
@@ -10615,7 +10615,7 @@
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B89" s="4">
         <v>25</v>
@@ -10722,7 +10722,7 @@
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B90" s="4">
         <v>26</v>
@@ -10829,7 +10829,7 @@
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B91" s="4">
         <v>27</v>
@@ -10936,7 +10936,7 @@
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B92" s="4">
         <v>28</v>
@@ -11043,7 +11043,7 @@
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B93" s="4">
         <v>29</v>
@@ -11150,7 +11150,7 @@
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B94" s="4">
         <v>30</v>
@@ -11257,7 +11257,7 @@
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B95" s="4"/>
       <c r="C95" s="7">
@@ -11352,7 +11352,7 @@
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B96" s="4">
         <v>1</v>
@@ -11459,7 +11459,7 @@
     </row>
     <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B97" s="4">
         <v>2</v>
@@ -11566,7 +11566,7 @@
     </row>
     <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B98" s="4">
         <v>3</v>
@@ -11673,7 +11673,7 @@
     </row>
     <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B99" s="4">
         <v>4</v>
@@ -11780,7 +11780,7 @@
     </row>
     <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B100" s="4">
         <v>5</v>
@@ -11890,7 +11890,7 @@
     </row>
     <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B101" s="4">
         <v>6</v>
@@ -11997,7 +11997,7 @@
     </row>
     <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B102" s="4">
         <v>7</v>
@@ -12107,7 +12107,7 @@
     </row>
     <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B103" s="4">
         <v>8</v>
@@ -12214,7 +12214,7 @@
     </row>
     <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B104" s="4">
         <v>9</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B105" s="4">
         <v>10</v>
@@ -12428,7 +12428,7 @@
     </row>
     <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B106" s="4">
         <v>11</v>
@@ -12535,7 +12535,7 @@
     </row>
     <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B107" s="4">
         <v>12</v>
@@ -12642,7 +12642,7 @@
     </row>
     <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B108" s="4">
         <v>13</v>
@@ -12749,7 +12749,7 @@
     </row>
     <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B109" s="4">
         <v>14</v>
@@ -12856,7 +12856,7 @@
     </row>
     <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B110" s="4">
         <v>15</v>
@@ -12963,7 +12963,7 @@
     </row>
     <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B111" s="4">
         <v>16</v>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B112" s="4">
         <v>17</v>
@@ -13178,7 +13178,7 @@
     </row>
     <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B113" s="4">
         <v>18</v>
@@ -13285,7 +13285,7 @@
     </row>
     <row r="114" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B114" s="4">
         <v>19</v>
@@ -13392,7 +13392,7 @@
     </row>
     <row r="115" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B115" s="4">
         <v>20</v>
@@ -13499,7 +13499,7 @@
     </row>
     <row r="116" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B116" s="4">
         <v>21</v>
@@ -13606,7 +13606,7 @@
     </row>
     <row r="117" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B117" s="4">
         <v>22</v>
@@ -13713,7 +13713,7 @@
     </row>
     <row r="118" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B118" s="4">
         <v>23</v>
@@ -13820,7 +13820,7 @@
     </row>
     <row r="119" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B119" s="4">
         <v>24</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="120" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B120" s="4">
         <v>25</v>
@@ -14034,7 +14034,7 @@
     </row>
     <row r="121" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B121" s="4">
         <v>26</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="122" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B122" s="4">
         <v>27</v>
@@ -14248,7 +14248,7 @@
     </row>
     <row r="123" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B123" s="4">
         <v>28</v>
@@ -14355,7 +14355,7 @@
     </row>
     <row r="124" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B124" s="4">
         <v>29</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="125" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B125" s="4">
         <v>30</v>
@@ -14569,7 +14569,7 @@
     </row>
     <row r="126" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A126" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C126" s="9">
         <v>28.2</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="127" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A127" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B127" s="10">
         <v>1</v>
@@ -14770,7 +14770,7 @@
     </row>
     <row r="128" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A128" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B128" s="10">
         <v>2</v>
@@ -14877,7 +14877,7 @@
     </row>
     <row r="129" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A129" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B129" s="10">
         <v>3</v>
@@ -14984,7 +14984,7 @@
     </row>
     <row r="130" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B130" s="10">
         <v>4</v>
@@ -15091,7 +15091,7 @@
     </row>
     <row r="131" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A131" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B131" s="10">
         <v>5</v>
@@ -15198,7 +15198,7 @@
     </row>
     <row r="132" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A132" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B132" s="10">
         <v>6</v>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="133" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A133" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B133" s="10">
         <v>7</v>
@@ -15412,7 +15412,7 @@
     </row>
     <row r="134" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B134" s="10">
         <v>8</v>
@@ -15519,7 +15519,7 @@
     </row>
     <row r="135" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B135" s="10">
         <v>9</v>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="136" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A136" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B136" s="10">
         <v>10</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="137" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A137" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B137" s="10">
         <v>11</v>
@@ -15843,7 +15843,7 @@
     </row>
     <row r="138" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B138" s="10">
         <v>12</v>
@@ -15953,7 +15953,7 @@
     </row>
     <row r="139" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A139" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B139" s="10">
         <v>13</v>
@@ -16060,7 +16060,7 @@
     </row>
     <row r="140" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A140" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B140" s="10">
         <v>14</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="141" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A141" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B141" s="10">
         <v>15</v>
@@ -16274,7 +16274,7 @@
     </row>
     <row r="142" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B142" s="10">
         <v>16</v>
@@ -16381,7 +16381,7 @@
     </row>
     <row r="143" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B143" s="10">
         <v>17</v>
@@ -16488,7 +16488,7 @@
     </row>
     <row r="144" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B144" s="10">
         <v>18</v>
@@ -16595,7 +16595,7 @@
     </row>
     <row r="145" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B145" s="10">
         <v>19</v>
@@ -16702,7 +16702,7 @@
     </row>
     <row r="146" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B146" s="10">
         <v>20</v>
@@ -16809,7 +16809,7 @@
     </row>
     <row r="147" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B147" s="10">
         <v>21</v>
@@ -16916,7 +16916,7 @@
     </row>
     <row r="148" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B148" s="10">
         <v>22</v>
@@ -17023,7 +17023,7 @@
     </row>
     <row r="149" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B149" s="10">
         <v>23</v>
@@ -17130,7 +17130,7 @@
     </row>
     <row r="150" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B150" s="10">
         <v>24</v>
@@ -17237,7 +17237,7 @@
     </row>
     <row r="151" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B151" s="10">
         <v>25</v>
@@ -17344,7 +17344,7 @@
     </row>
     <row r="152" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A152" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B152" s="10">
         <v>26</v>
@@ -17451,7 +17451,7 @@
     </row>
     <row r="153" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B153" s="10">
         <v>27</v>
@@ -17558,7 +17558,7 @@
     </row>
     <row r="154" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B154" s="10">
         <v>28</v>
@@ -17665,7 +17665,7 @@
     </row>
     <row r="155" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B155" s="10">
         <v>29</v>
@@ -17772,7 +17772,7 @@
     </row>
     <row r="156" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B156" s="10">
         <v>30</v>
@@ -17879,7 +17879,7 @@
     </row>
     <row r="157" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="11">
@@ -17974,7 +17974,7 @@
     </row>
     <row r="158" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B158" s="12">
         <v>1</v>
@@ -18084,7 +18084,7 @@
     </row>
     <row r="159" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B159" s="12">
         <v>2</v>
@@ -18191,7 +18191,7 @@
     </row>
     <row r="160" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B160" s="12">
         <v>3</v>
@@ -18298,7 +18298,7 @@
     </row>
     <row r="161" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B161" s="12">
         <v>4</v>
@@ -18405,7 +18405,7 @@
     </row>
     <row r="162" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B162" s="12">
         <v>5</v>
@@ -18515,7 +18515,7 @@
     </row>
     <row r="163" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B163" s="12">
         <v>6</v>
@@ -18622,7 +18622,7 @@
     </row>
     <row r="164" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A164" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B164" s="12">
         <v>7</v>
@@ -18729,7 +18729,7 @@
     </row>
     <row r="165" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A165" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B165" s="12">
         <v>8</v>
@@ -18836,7 +18836,7 @@
     </row>
     <row r="166" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A166" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B166" s="12">
         <v>9</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="167" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A167" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B167" s="12">
         <v>10</v>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="168" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A168" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B168" s="12">
         <v>11</v>
@@ -19157,7 +19157,7 @@
     </row>
     <row r="169" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A169" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B169" s="12">
         <v>12</v>
@@ -19264,7 +19264,7 @@
     </row>
     <row r="170" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A170" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B170" s="12">
         <v>13</v>
@@ -19371,7 +19371,7 @@
     </row>
     <row r="171" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A171" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B171" s="12">
         <v>14</v>
@@ -19478,7 +19478,7 @@
     </row>
     <row r="172" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A172" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B172" s="12">
         <v>15</v>
@@ -19585,7 +19585,7 @@
     </row>
     <row r="173" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A173" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B173" s="12">
         <v>16</v>
@@ -19692,7 +19692,7 @@
     </row>
     <row r="174" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A174" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B174" s="12">
         <v>17</v>
@@ -19799,7 +19799,7 @@
     </row>
     <row r="175" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A175" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B175" s="12">
         <v>18</v>
@@ -19906,7 +19906,7 @@
     </row>
     <row r="176" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A176" s="26" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B176" s="12">
         <v>19</v>
@@ -20013,7 +20013,7 @@
     </row>
     <row r="177" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A177" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B177" s="12">
         <v>20</v>
@@ -20120,7 +20120,7 @@
     </row>
     <row r="178" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A178" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B178" s="12">
         <v>21</v>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="179" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A179" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B179" s="12">
         <v>22</v>
@@ -20334,7 +20334,7 @@
     </row>
     <row r="180" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A180" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B180" s="12">
         <v>23</v>
@@ -20441,7 +20441,7 @@
     </row>
     <row r="181" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A181" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B181" s="12">
         <v>24</v>
@@ -20548,7 +20548,7 @@
     </row>
     <row r="182" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A182" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B182" s="12">
         <v>25</v>
@@ -20655,7 +20655,7 @@
     </row>
     <row r="183" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A183" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B183" s="12">
         <v>26</v>
@@ -20762,7 +20762,7 @@
     </row>
     <row r="184" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A184" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B184" s="12">
         <v>27</v>
@@ -20869,7 +20869,7 @@
     </row>
     <row r="185" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A185" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B185" s="12">
         <v>28</v>
@@ -20976,7 +20976,7 @@
     </row>
     <row r="186" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A186" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B186" s="12">
         <v>29</v>
@@ -21083,7 +21083,7 @@
     </row>
     <row r="187" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A187" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B187" s="12">
         <v>30</v>
@@ -21190,7 +21190,7 @@
     </row>
     <row r="188" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A188" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B188" s="12"/>
       <c r="C188" s="13">
@@ -21285,7 +21285,7 @@
     </row>
     <row r="189" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="31" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B189" s="30">
         <v>1</v>
@@ -21392,7 +21392,7 @@
     </row>
     <row r="190" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="31" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B190" s="30">
         <v>2</v>
@@ -21499,7 +21499,7 @@
     </row>
     <row r="191" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="31" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B191" s="30">
         <v>3</v>
@@ -21606,7 +21606,7 @@
     </row>
     <row r="192" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="31" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B192" s="30">
         <v>4</v>
@@ -21713,7 +21713,7 @@
     </row>
     <row r="193" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="31" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B193" s="30">
         <v>5</v>
@@ -21820,7 +21820,7 @@
     </row>
     <row r="194" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="31" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B194" s="30">
         <v>6</v>
@@ -21927,7 +21927,7 @@
     </row>
     <row r="195" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="31" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B195" s="30">
         <v>7</v>
@@ -22034,7 +22034,7 @@
     </row>
     <row r="196" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="31" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B196" s="30">
         <v>8</v>
@@ -22144,7 +22144,7 @@
     </row>
     <row r="197" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="31" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B197" s="30">
         <v>9</v>
@@ -22251,7 +22251,7 @@
     </row>
     <row r="198" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="31" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B198" s="30">
         <v>10</v>
@@ -22358,7 +22358,7 @@
     </row>
     <row r="199" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="31" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B199" s="30">
         <v>11</v>
@@ -22465,7 +22465,7 @@
     </row>
     <row r="200" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="31" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B200" s="30">
         <v>12</v>
@@ -22572,7 +22572,7 @@
     </row>
     <row r="201" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="31" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B201" s="30">
         <v>13</v>
@@ -22682,7 +22682,7 @@
     </row>
     <row r="202" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="31" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B202" s="30">
         <v>14</v>
@@ -22789,7 +22789,7 @@
     </row>
     <row r="203" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="31" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B203" s="30">
         <v>15</v>
@@ -22896,7 +22896,7 @@
     </row>
     <row r="204" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="31" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B204" s="30">
         <v>16</v>
@@ -23003,7 +23003,7 @@
     </row>
     <row r="205" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="31" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B205" s="30">
         <v>17</v>
@@ -23110,7 +23110,7 @@
     </row>
     <row r="206" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="31" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B206" s="30">
         <v>18</v>
@@ -23217,7 +23217,7 @@
     </row>
     <row r="207" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="31" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B207" s="30">
         <v>19</v>
@@ -23324,7 +23324,7 @@
     </row>
     <row r="208" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="31" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B208" s="30">
         <v>20</v>
@@ -23431,7 +23431,7 @@
     </row>
     <row r="209" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="31" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B209" s="30">
         <v>21</v>
@@ -23538,7 +23538,7 @@
     </row>
     <row r="210" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="31" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="B210" s="30">
         <v>22</v>
@@ -23645,7 +23645,7 @@
     </row>
     <row r="211" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="31" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B211" s="30">
         <v>23</v>
@@ -23752,7 +23752,7 @@
     </row>
     <row r="212" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="31" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B212" s="30">
         <v>24</v>
@@ -23859,7 +23859,7 @@
     </row>
     <row r="213" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="31" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B213" s="30">
         <v>25</v>
@@ -23966,7 +23966,7 @@
     </row>
     <row r="214" spans="1:39" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="31" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B214" s="30">
         <v>26</v>
@@ -24073,7 +24073,7 @@
     </row>
     <row r="215" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="31" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B215" s="30">
         <v>27</v>
@@ -24180,7 +24180,7 @@
     </row>
     <row r="216" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="31" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B216" s="30">
         <v>28</v>
@@ -24287,7 +24287,7 @@
     </row>
     <row r="217" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="31" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B217" s="30">
         <v>29</v>
@@ -24394,7 +24394,7 @@
     </row>
     <row r="218" spans="1:39" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="31" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B218" s="30">
         <v>30</v>
@@ -24501,7 +24501,7 @@
     </row>
     <row r="219" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="31" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C219" s="31">
         <v>27.7</v>
@@ -24595,7 +24595,7 @@
     </row>
     <row r="220" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A220" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B220" s="15">
         <v>1</v>
@@ -24705,7 +24705,7 @@
     </row>
     <row r="221" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A221" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B221" s="15">
         <v>2</v>
@@ -24813,7 +24813,7 @@
     </row>
     <row r="222" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A222" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B222" s="15">
         <v>3</v>
@@ -24921,7 +24921,7 @@
     </row>
     <row r="223" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A223" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B223" s="15">
         <v>4</v>
@@ -25029,7 +25029,7 @@
     </row>
     <row r="224" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A224" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B224" s="15">
         <v>5</v>
@@ -25137,7 +25137,7 @@
     </row>
     <row r="225" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A225" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B225" s="15">
         <v>6</v>
@@ -25245,7 +25245,7 @@
     </row>
     <row r="226" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A226" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B226" s="15">
         <v>7</v>
@@ -25353,7 +25353,7 @@
     </row>
     <row r="227" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A227" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B227" s="15">
         <v>8</v>
@@ -25464,7 +25464,7 @@
     </row>
     <row r="228" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A228" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B228" s="15">
         <v>9</v>
@@ -25572,7 +25572,7 @@
     </row>
     <row r="229" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A229" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B229" s="15">
         <v>10</v>
@@ -25680,7 +25680,7 @@
     </row>
     <row r="230" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A230" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B230" s="15">
         <v>11</v>
@@ -25788,7 +25788,7 @@
     </row>
     <row r="231" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A231" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B231" s="15">
         <v>12</v>
@@ -25899,7 +25899,7 @@
     </row>
     <row r="232" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A232" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B232" s="15">
         <v>13</v>
@@ -26007,7 +26007,7 @@
     </row>
     <row r="233" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A233" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B233" s="15">
         <v>14</v>
@@ -26115,7 +26115,7 @@
     </row>
     <row r="234" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A234" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B234" s="15">
         <v>15</v>
@@ -26223,7 +26223,7 @@
     </row>
     <row r="235" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A235" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B235" s="15">
         <v>16</v>
@@ -26331,7 +26331,7 @@
     </row>
     <row r="236" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A236" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B236" s="15">
         <v>17</v>
@@ -26439,7 +26439,7 @@
     </row>
     <row r="237" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A237" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B237" s="15">
         <v>18</v>
@@ -26547,7 +26547,7 @@
     </row>
     <row r="238" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A238" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B238" s="15">
         <v>19</v>
@@ -26655,7 +26655,7 @@
     </row>
     <row r="239" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A239" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B239" s="15">
         <v>20</v>
@@ -26763,7 +26763,7 @@
     </row>
     <row r="240" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A240" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B240" s="15">
         <v>21</v>
@@ -26871,7 +26871,7 @@
     </row>
     <row r="241" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A241" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B241" s="15">
         <v>22</v>
@@ -26979,7 +26979,7 @@
     </row>
     <row r="242" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A242" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B242" s="15">
         <v>23</v>
@@ -27087,7 +27087,7 @@
     </row>
     <row r="243" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A243" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B243" s="15">
         <v>24</v>
@@ -27195,7 +27195,7 @@
     </row>
     <row r="244" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A244" s="26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B244" s="15">
         <v>25</v>
@@ -27303,7 +27303,7 @@
     </row>
     <row r="245" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A245" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B245" s="15">
         <v>26</v>
@@ -27411,7 +27411,7 @@
     </row>
     <row r="246" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A246" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B246" s="15">
         <v>27</v>
@@ -27519,7 +27519,7 @@
     </row>
     <row r="247" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A247" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B247" s="15">
         <v>28</v>
@@ -27627,7 +27627,7 @@
     </row>
     <row r="248" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A248" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B248" s="15">
         <v>29</v>
@@ -27735,7 +27735,7 @@
     </row>
     <row r="249" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A249" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B249" s="15">
         <v>30</v>
@@ -27843,7 +27843,7 @@
     </row>
     <row r="250" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A250" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B250" s="15"/>
       <c r="C250" s="16">
@@ -27939,7 +27939,7 @@
     </row>
     <row r="251" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A251" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B251" s="17">
         <v>1</v>
@@ -28047,7 +28047,7 @@
     </row>
     <row r="252" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A252" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B252" s="17">
         <v>2</v>
@@ -28155,7 +28155,7 @@
     </row>
     <row r="253" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A253" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B253" s="17">
         <v>3</v>
@@ -28266,7 +28266,7 @@
     </row>
     <row r="254" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A254" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B254" s="17">
         <v>4</v>
@@ -28374,7 +28374,7 @@
     </row>
     <row r="255" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A255" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B255" s="17">
         <v>5</v>
@@ -28482,7 +28482,7 @@
     </row>
     <row r="256" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A256" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B256" s="17">
         <v>6</v>
@@ -28590,7 +28590,7 @@
     </row>
     <row r="257" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A257" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B257" s="17">
         <v>7</v>
@@ -28698,7 +28698,7 @@
     </row>
     <row r="258" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A258" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B258" s="17">
         <v>8</v>
@@ -28806,7 +28806,7 @@
     </row>
     <row r="259" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A259" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B259" s="17">
         <v>9</v>
@@ -28914,7 +28914,7 @@
     </row>
     <row r="260" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A260" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B260" s="17">
         <v>10</v>
@@ -29022,7 +29022,7 @@
     </row>
     <row r="261" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A261" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B261" s="17">
         <v>11</v>
@@ -29130,7 +29130,7 @@
     </row>
     <row r="262" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A262" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B262" s="17">
         <v>12</v>
@@ -29238,7 +29238,7 @@
     </row>
     <row r="263" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A263" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B263" s="17">
         <v>13</v>
@@ -29346,7 +29346,7 @@
     </row>
     <row r="264" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A264" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B264" s="17">
         <v>14</v>
@@ -29454,7 +29454,7 @@
     </row>
     <row r="265" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A265" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B265" s="17">
         <v>15</v>
@@ -29562,7 +29562,7 @@
     </row>
     <row r="266" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A266" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B266" s="17">
         <v>16</v>
@@ -29670,7 +29670,7 @@
     </row>
     <row r="267" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A267" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B267" s="17">
         <v>17</v>
@@ -29778,7 +29778,7 @@
     </row>
     <row r="268" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A268" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B268" s="17">
         <v>18</v>
@@ -29886,7 +29886,7 @@
     </row>
     <row r="269" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A269" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B269" s="17">
         <v>19</v>
@@ -29997,7 +29997,7 @@
     </row>
     <row r="270" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A270" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B270" s="17">
         <v>20</v>
@@ -30105,7 +30105,7 @@
     </row>
     <row r="271" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A271" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B271" s="17">
         <v>21</v>
@@ -30213,7 +30213,7 @@
     </row>
     <row r="272" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A272" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B272" s="17">
         <v>22</v>
@@ -30321,7 +30321,7 @@
     </row>
     <row r="273" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A273" s="26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B273" s="17">
         <v>23</v>
@@ -30429,7 +30429,7 @@
     </row>
     <row r="274" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A274" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B274" s="17">
         <v>24</v>
@@ -30537,7 +30537,7 @@
     </row>
     <row r="275" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A275" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B275" s="17">
         <v>25</v>
@@ -30645,7 +30645,7 @@
     </row>
     <row r="276" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A276" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B276" s="17">
         <v>26</v>
@@ -30753,7 +30753,7 @@
     </row>
     <row r="277" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A277" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B277" s="17">
         <v>27</v>
@@ -30861,7 +30861,7 @@
     </row>
     <row r="278" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A278" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B278" s="17">
         <v>28</v>
@@ -30969,7 +30969,7 @@
     </row>
     <row r="279" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A279" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B279" s="17">
         <v>29</v>
@@ -31077,7 +31077,7 @@
     </row>
     <row r="280" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A280" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B280" s="17">
         <v>30</v>
@@ -31185,7 +31185,7 @@
     </row>
     <row r="281" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A281" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B281" s="17"/>
       <c r="C281" s="18">
@@ -31281,7 +31281,7 @@
     </row>
     <row r="282" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A282" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B282" s="19">
         <v>1</v>
@@ -31389,7 +31389,7 @@
     </row>
     <row r="283" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A283" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B283" s="19">
         <v>2</v>
@@ -31497,7 +31497,7 @@
     </row>
     <row r="284" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A284" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B284" s="19">
         <v>3</v>
@@ -31608,7 +31608,7 @@
     </row>
     <row r="285" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A285" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B285" s="19">
         <v>4</v>
@@ -31716,7 +31716,7 @@
     </row>
     <row r="286" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A286" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B286" s="19">
         <v>5</v>
@@ -31824,7 +31824,7 @@
     </row>
     <row r="287" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A287" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B287" s="19">
         <v>6</v>
@@ -31932,7 +31932,7 @@
     </row>
     <row r="288" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A288" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B288" s="19">
         <v>7</v>
@@ -32040,7 +32040,7 @@
     </row>
     <row r="289" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A289" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B289" s="19">
         <v>8</v>
@@ -32151,7 +32151,7 @@
     </row>
     <row r="290" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A290" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B290" s="19">
         <v>9</v>
@@ -32259,7 +32259,7 @@
     </row>
     <row r="291" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A291" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B291" s="19">
         <v>10</v>
@@ -32367,7 +32367,7 @@
     </row>
     <row r="292" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A292" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B292" s="19">
         <v>11</v>
@@ -32475,7 +32475,7 @@
     </row>
     <row r="293" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A293" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B293" s="19">
         <v>12</v>
@@ -32583,7 +32583,7 @@
     </row>
     <row r="294" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A294" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B294" s="19">
         <v>13</v>
@@ -32691,7 +32691,7 @@
     </row>
     <row r="295" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A295" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B295" s="19">
         <v>14</v>
@@ -32799,7 +32799,7 @@
     </row>
     <row r="296" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A296" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B296" s="19">
         <v>15</v>
@@ -32907,7 +32907,7 @@
     </row>
     <row r="297" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A297" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B297" s="19">
         <v>16</v>
@@ -33015,7 +33015,7 @@
     </row>
     <row r="298" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A298" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B298" s="19">
         <v>17</v>
@@ -33123,7 +33123,7 @@
     </row>
     <row r="299" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A299" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B299" s="19">
         <v>18</v>
@@ -33231,7 +33231,7 @@
     </row>
     <row r="300" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A300" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B300" s="19">
         <v>19</v>
@@ -33339,7 +33339,7 @@
     </row>
     <row r="301" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A301" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B301" s="19">
         <v>20</v>
@@ -33447,7 +33447,7 @@
     </row>
     <row r="302" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A302" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B302" s="19">
         <v>21</v>
@@ -33555,7 +33555,7 @@
     </row>
     <row r="303" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A303" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B303" s="19">
         <v>22</v>
@@ -33663,7 +33663,7 @@
     </row>
     <row r="304" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A304" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B304" s="19">
         <v>23</v>
@@ -33771,7 +33771,7 @@
     </row>
     <row r="305" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A305" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B305" s="19">
         <v>24</v>
@@ -33879,7 +33879,7 @@
     </row>
     <row r="306" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A306" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B306" s="19">
         <v>25</v>
@@ -33987,7 +33987,7 @@
     </row>
     <row r="307" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A307" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B307" s="19">
         <v>26</v>
@@ -34095,7 +34095,7 @@
     </row>
     <row r="308" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A308" s="26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B308" s="19">
         <v>27</v>
@@ -34203,7 +34203,7 @@
     </row>
     <row r="309" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A309" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B309" s="19">
         <v>28</v>
@@ -34311,7 +34311,7 @@
     </row>
     <row r="310" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A310" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B310" s="19">
         <v>29</v>
@@ -34419,7 +34419,7 @@
     </row>
     <row r="311" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A311" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B311" s="19">
         <v>30</v>
@@ -34527,7 +34527,7 @@
     </row>
     <row r="312" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A312" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B312" s="19"/>
       <c r="C312" s="20">
@@ -34623,7 +34623,7 @@
     </row>
     <row r="313" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A313" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B313" s="21">
         <v>1</v>
@@ -34734,7 +34734,7 @@
     </row>
     <row r="314" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A314" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B314" s="21">
         <v>2</v>
@@ -34842,7 +34842,7 @@
     </row>
     <row r="315" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A315" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B315" s="21">
         <v>3</v>
@@ -34950,7 +34950,7 @@
     </row>
     <row r="316" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A316" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B316" s="21">
         <v>4</v>
@@ -35061,7 +35061,7 @@
     </row>
     <row r="317" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A317" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B317" s="21">
         <v>5</v>
@@ -35169,7 +35169,7 @@
     </row>
     <row r="318" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A318" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B318" s="21">
         <v>6</v>
@@ -35277,7 +35277,7 @@
     </row>
     <row r="319" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A319" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B319" s="21">
         <v>7</v>
@@ -35385,7 +35385,7 @@
     </row>
     <row r="320" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A320" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B320" s="21">
         <v>8</v>
@@ -35493,7 +35493,7 @@
     </row>
     <row r="321" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A321" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B321" s="21">
         <v>9</v>
@@ -35601,7 +35601,7 @@
     </row>
     <row r="322" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A322" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B322" s="21">
         <v>10</v>
@@ -35709,7 +35709,7 @@
     </row>
     <row r="323" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A323" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B323" s="21">
         <v>11</v>
@@ -35817,7 +35817,7 @@
     </row>
     <row r="324" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A324" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B324" s="21">
         <v>12</v>
@@ -35925,7 +35925,7 @@
     </row>
     <row r="325" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A325" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B325" s="21">
         <v>13</v>
@@ -36033,7 +36033,7 @@
     </row>
     <row r="326" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A326" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B326" s="21">
         <v>14</v>
@@ -36141,7 +36141,7 @@
     </row>
     <row r="327" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A327" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B327" s="21">
         <v>15</v>
@@ -36249,7 +36249,7 @@
     </row>
     <row r="328" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A328" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B328" s="21">
         <v>16</v>
@@ -36357,7 +36357,7 @@
     </row>
     <row r="329" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A329" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B329" s="21">
         <v>17</v>
@@ -36465,7 +36465,7 @@
     </row>
     <row r="330" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A330" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B330" s="21">
         <v>18</v>
@@ -36573,7 +36573,7 @@
     </row>
     <row r="331" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A331" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B331" s="21">
         <v>19</v>
@@ -36681,7 +36681,7 @@
     </row>
     <row r="332" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A332" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B332" s="21">
         <v>20</v>
@@ -36789,7 +36789,7 @@
     </row>
     <row r="333" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A333" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B333" s="21">
         <v>21</v>
@@ -36897,7 +36897,7 @@
     </row>
     <row r="334" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A334" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B334" s="21">
         <v>22</v>
@@ -37005,7 +37005,7 @@
     </row>
     <row r="335" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A335" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B335" s="21">
         <v>23</v>
@@ -37113,7 +37113,7 @@
     </row>
     <row r="336" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A336" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B336" s="21">
         <v>24</v>
@@ -37221,7 +37221,7 @@
     </row>
     <row r="337" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A337" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B337" s="21">
         <v>25</v>
@@ -37329,7 +37329,7 @@
     </row>
     <row r="338" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A338" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B338" s="21">
         <v>26</v>
@@ -37437,7 +37437,7 @@
     </row>
     <row r="339" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A339" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B339" s="21">
         <v>27</v>
@@ -37545,7 +37545,7 @@
     </row>
     <row r="340" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A340" s="26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B340" s="21">
         <v>28</v>
@@ -37653,7 +37653,7 @@
     </row>
     <row r="341" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A341" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B341" s="21">
         <v>29</v>
@@ -37761,7 +37761,7 @@
     </row>
     <row r="342" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A342" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B342" s="21">
         <v>30</v>
@@ -37869,7 +37869,7 @@
     </row>
     <row r="343" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A343" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B343" s="21"/>
       <c r="C343" s="22">
@@ -37965,7 +37965,7 @@
     </row>
     <row r="344" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A344" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B344" s="24">
         <v>1</v>
@@ -38074,7 +38074,7 @@
     </row>
     <row r="345" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A345" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B345" s="24">
         <v>2</v>
@@ -38183,7 +38183,7 @@
     </row>
     <row r="346" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A346" s="26" t="s">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="B346" s="24">
         <v>3</v>
@@ -38295,7 +38295,7 @@
     </row>
     <row r="347" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A347" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B347" s="24">
         <v>4</v>
@@ -38404,7 +38404,7 @@
     </row>
     <row r="348" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A348" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B348" s="24">
         <v>5</v>
@@ -38513,7 +38513,7 @@
     </row>
     <row r="349" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A349" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B349" s="24">
         <v>6</v>
@@ -38622,7 +38622,7 @@
     </row>
     <row r="350" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A350" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B350" s="24">
         <v>7</v>
@@ -38731,7 +38731,7 @@
     </row>
     <row r="351" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A351" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B351" s="24">
         <v>8</v>
@@ -38843,7 +38843,7 @@
     </row>
     <row r="352" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A352" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B352" s="24">
         <v>9</v>
@@ -38952,7 +38952,7 @@
     </row>
     <row r="353" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A353" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B353" s="24">
         <v>10</v>
@@ -39061,7 +39061,7 @@
     </row>
     <row r="354" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A354" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B354" s="24">
         <v>11</v>
@@ -39170,7 +39170,7 @@
     </row>
     <row r="355" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A355" s="26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B355" s="24">
         <v>12</v>
@@ -39279,7 +39279,7 @@
     </row>
     <row r="356" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A356" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B356" s="24">
         <v>13</v>
@@ -39388,7 +39388,7 @@
     </row>
     <row r="357" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A357" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B357" s="24">
         <v>14</v>
@@ -39497,7 +39497,7 @@
     </row>
     <row r="358" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A358" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B358" s="24">
         <v>15</v>
@@ -39606,7 +39606,7 @@
     </row>
     <row r="359" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A359" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B359" s="24">
         <v>16</v>
@@ -39715,7 +39715,7 @@
     </row>
     <row r="360" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A360" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B360" s="24">
         <v>17</v>
@@ -39824,7 +39824,7 @@
     </row>
     <row r="361" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A361" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B361" s="24">
         <v>18</v>
@@ -39933,7 +39933,7 @@
     </row>
     <row r="362" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A362" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B362" s="24">
         <v>19</v>
@@ -40042,7 +40042,7 @@
     </row>
     <row r="363" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A363" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B363" s="24">
         <v>20</v>
@@ -40151,7 +40151,7 @@
     </row>
     <row r="364" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A364" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B364" s="24">
         <v>21</v>
@@ -40260,7 +40260,7 @@
     </row>
     <row r="365" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A365" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B365" s="24">
         <v>22</v>
@@ -40369,7 +40369,7 @@
     </row>
     <row r="366" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A366" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B366" s="24">
         <v>23</v>
@@ -40478,7 +40478,7 @@
     </row>
     <row r="367" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A367" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B367" s="24">
         <v>24</v>
@@ -40587,7 +40587,7 @@
     </row>
     <row r="368" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A368" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B368" s="24">
         <v>25</v>
@@ -40696,7 +40696,7 @@
     </row>
     <row r="369" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A369" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B369" s="24">
         <v>26</v>
@@ -40805,7 +40805,7 @@
     </row>
     <row r="370" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A370" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B370" s="24">
         <v>27</v>
@@ -40914,7 +40914,7 @@
     </row>
     <row r="371" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A371" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B371" s="24">
         <v>28</v>
@@ -41023,7 +41023,7 @@
     </row>
     <row r="372" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A372" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B372" s="24">
         <v>29</v>
@@ -41132,7 +41132,7 @@
     </row>
     <row r="373" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A373" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B373" s="24">
         <v>30</v>
@@ -41241,7 +41241,7 @@
     </row>
     <row r="374" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A374" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B374" s="24"/>
       <c r="C374" s="25">
@@ -41336,7 +41336,7 @@
     </row>
     <row r="375" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A375" s="26" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B375" s="27">
         <v>3</v>
@@ -41448,7 +41448,7 @@
     </row>
     <row r="376" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A376" s="26" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="B376" s="27">
         <v>1</v>
@@ -41557,7 +41557,7 @@
     </row>
     <row r="377" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A377" s="26" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B377" s="27">
         <v>2</v>
@@ -41666,7 +41666,7 @@
     </row>
     <row r="378" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A378" s="26" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B378" s="27">
         <v>4</v>
@@ -41775,7 +41775,7 @@
     </row>
     <row r="379" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A379" s="26" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B379" s="27">
         <v>5</v>
@@ -41884,7 +41884,7 @@
     </row>
     <row r="380" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A380" s="26" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="B380" s="27">
         <v>6</v>
@@ -41993,7 +41993,7 @@
     </row>
     <row r="381" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A381" s="26" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="B381" s="27">
         <v>7</v>
@@ -42102,7 +42102,7 @@
     </row>
     <row r="382" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A382" s="26" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="B382" s="27">
         <v>8</v>
@@ -42211,7 +42211,7 @@
     </row>
     <row r="383" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A383" s="26" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B383" s="27">
         <v>9</v>
@@ -42320,7 +42320,7 @@
     </row>
     <row r="384" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A384" s="26" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="B384" s="27">
         <v>10</v>
@@ -42429,7 +42429,7 @@
     </row>
     <row r="385" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A385" s="26" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B385" s="27">
         <v>11</v>
@@ -42538,7 +42538,7 @@
     </row>
     <row r="386" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A386" s="26" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B386" s="27">
         <v>12</v>
@@ -42647,7 +42647,7 @@
     </row>
     <row r="387" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A387" s="26" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B387" s="27">
         <v>13</v>
@@ -42756,7 +42756,7 @@
     </row>
     <row r="388" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A388" s="26" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="B388" s="27">
         <v>14</v>
@@ -42868,7 +42868,7 @@
     </row>
     <row r="389" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A389" s="26" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="B389" s="27">
         <v>15</v>
@@ -42977,7 +42977,7 @@
     </row>
     <row r="390" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A390" s="26" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B390" s="27">
         <v>16</v>
@@ -43086,7 +43086,7 @@
     </row>
     <row r="391" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A391" s="26" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="B391" s="27">
         <v>17</v>
@@ -43195,7 +43195,7 @@
     </row>
     <row r="392" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A392" s="26" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="B392" s="27">
         <v>18</v>
@@ -43304,7 +43304,7 @@
     </row>
     <row r="393" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A393" s="26" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B393" s="27">
         <v>19</v>
@@ -43413,7 +43413,7 @@
     </row>
     <row r="394" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A394" s="26" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B394" s="27">
         <v>20</v>
@@ -43522,7 +43522,7 @@
     </row>
     <row r="395" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A395" s="26" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B395" s="27">
         <v>21</v>
@@ -43631,7 +43631,7 @@
     </row>
     <row r="396" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A396" s="26" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B396" s="27">
         <v>22</v>
@@ -43740,7 +43740,7 @@
     </row>
     <row r="397" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A397" s="26" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B397" s="27">
         <v>23</v>
@@ -43849,7 +43849,7 @@
     </row>
     <row r="398" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A398" s="26" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B398" s="27">
         <v>24</v>
@@ -43958,7 +43958,7 @@
     </row>
     <row r="399" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A399" s="26" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="B399" s="27">
         <v>25</v>
@@ -44067,7 +44067,7 @@
     </row>
     <row r="400" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A400" s="26" t="s">
-        <v>54</v>
+        <v>23</v>
       </c>
       <c r="B400" s="27">
         <v>26</v>
@@ -44176,7 +44176,7 @@
     </row>
     <row r="401" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A401" s="26" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B401" s="27">
         <v>27</v>
@@ -44285,7 +44285,7 @@
     </row>
     <row r="402" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A402" s="26" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B402" s="27">
         <v>28</v>
@@ -44394,7 +44394,7 @@
     </row>
     <row r="403" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A403" s="26" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B403" s="27">
         <v>29</v>
@@ -44503,7 +44503,7 @@
     </row>
     <row r="404" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A404" s="26" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B404" s="27">
         <v>30</v>
@@ -44612,7 +44612,7 @@
     </row>
     <row r="405" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A405" s="26" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B405" s="27"/>
       <c r="C405" s="28">
@@ -44706,11 +44706,6 @@
       <c r="AM405" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK405">
-    <sortState ref="A375:AK405">
-      <sortCondition ref="AJ1:AJ405"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/raw-data.xlsx
+++ b/raw-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psdup\Documents\R\nhl-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1F95785-9B3E-4BB5-951E-720E152AB1E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{133EF67E-8914-466B-8F03-E733F2C7FB63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9348"/>
   </bookViews>
@@ -1160,9 +1160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM405"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC2" sqref="AC2"/>
+    <sheetView tabSelected="1" topLeftCell="A305" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL317" sqref="AL317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,7 +1197,7 @@
     <col min="36" max="36" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1416,8 +1416,14 @@
       <c r="AI2" t="b">
         <v>1</v>
       </c>
+      <c r="AJ2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1523,8 +1529,15 @@
       <c r="AI3" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="29"/>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1630,8 +1643,15 @@
       <c r="AI4" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="29"/>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1737,8 +1757,15 @@
       <c r="AI5" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="29"/>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1844,11 +1871,15 @@
       <c r="AI6" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ6" t="b">
+        <v>0</v>
+      </c>
       <c r="AK6" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AL6" s="29"/>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1957,8 +1988,12 @@
       <c r="AJ7" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AK7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="29"/>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2099,15 @@
       <c r="AI8" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="29"/>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2171,8 +2213,15 @@
       <c r="AI9" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="29"/>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2278,8 +2327,15 @@
       <c r="AI10" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="29"/>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2385,8 +2441,15 @@
       <c r="AI11" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="29"/>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -2492,8 +2555,15 @@
       <c r="AI12" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="29"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -2599,8 +2669,15 @@
       <c r="AI13" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="29"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2706,8 +2783,15 @@
       <c r="AI14" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="29"/>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2813,8 +2897,15 @@
       <c r="AI15" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="29"/>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>21</v>
       </c>
@@ -2920,8 +3011,15 @@
       <c r="AI16" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="29"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3027,8 +3125,15 @@
       <c r="AI17" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="29"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3134,8 +3239,15 @@
       <c r="AI18" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="29"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -3241,8 +3353,15 @@
       <c r="AI19" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="29"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -3348,8 +3467,15 @@
       <c r="AI20" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="29"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -3455,8 +3581,15 @@
       <c r="AI21" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="29"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3562,8 +3695,15 @@
       <c r="AI22" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="29"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -3669,8 +3809,15 @@
       <c r="AI23" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="29"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -3776,8 +3923,15 @@
       <c r="AI24" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="29"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -3883,8 +4037,15 @@
       <c r="AI25" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="29"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -3990,8 +4151,15 @@
       <c r="AI26" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="29"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -4097,8 +4265,15 @@
       <c r="AI27" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="29"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -4204,8 +4379,15 @@
       <c r="AI28" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="29"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -4311,8 +4493,15 @@
       <c r="AI29" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="29"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -4418,8 +4607,15 @@
       <c r="AI30" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="29"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -4525,8 +4721,15 @@
       <c r="AI31" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="29"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -4632,8 +4835,15 @@
       <c r="AI32" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="29"/>
     </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4727,8 +4937,15 @@
       <c r="AI33" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="29"/>
     </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
@@ -4834,8 +5051,15 @@
       <c r="AI34" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="29"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
@@ -4944,8 +5168,12 @@
       <c r="AJ35" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AK35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="29"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36" s="5" t="s">
         <v>8</v>
       </c>
@@ -5051,8 +5279,15 @@
       <c r="AI36" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="29"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>24</v>
       </c>
@@ -5158,8 +5393,15 @@
       <c r="AI37" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="29"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>31</v>
       </c>
@@ -5265,8 +5507,15 @@
       <c r="AI38" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="29"/>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
         <v>33</v>
       </c>
@@ -5372,8 +5621,15 @@
       <c r="AI39" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="29"/>
     </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
         <v>11</v>
       </c>
@@ -5479,8 +5735,15 @@
       <c r="AI40" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="29"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>6</v>
       </c>
@@ -5586,8 +5849,15 @@
       <c r="AI41" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="29"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
         <v>7</v>
       </c>
@@ -5693,8 +5963,15 @@
       <c r="AI42" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="29"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
         <v>1</v>
       </c>
@@ -5800,8 +6077,15 @@
       <c r="AI43" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="29"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>26</v>
       </c>
@@ -5907,8 +6191,15 @@
       <c r="AI44" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="29"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>13</v>
       </c>
@@ -6014,8 +6305,15 @@
       <c r="AI45" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="29"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
         <v>25</v>
       </c>
@@ -6121,8 +6419,15 @@
       <c r="AI46" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="29"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
         <v>23</v>
       </c>
@@ -6228,8 +6533,15 @@
       <c r="AI47" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="29"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
         <v>17</v>
       </c>
@@ -6335,8 +6647,15 @@
       <c r="AI48" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="29"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
         <v>5</v>
       </c>
@@ -6442,8 +6761,15 @@
       <c r="AI49" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="29"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
         <v>30</v>
       </c>
@@ -6549,11 +6875,15 @@
       <c r="AI50" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ50" t="b">
+        <v>0</v>
+      </c>
       <c r="AK50" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AL50" s="29"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>3</v>
       </c>
@@ -6659,8 +6989,15 @@
       <c r="AI51" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="29"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>18</v>
       </c>
@@ -6766,8 +7103,15 @@
       <c r="AI52" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="29"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
         <v>19</v>
       </c>
@@ -6873,8 +7217,15 @@
       <c r="AI53" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="29"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
@@ -6980,8 +7331,15 @@
       <c r="AI54" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="29"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>20</v>
       </c>
@@ -7087,8 +7445,15 @@
       <c r="AI55" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="29"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
         <v>0</v>
       </c>
@@ -7194,8 +7559,15 @@
       <c r="AI56" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="29"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
@@ -7301,8 +7673,15 @@
       <c r="AI57" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="29"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
         <v>10</v>
       </c>
@@ -7408,8 +7787,15 @@
       <c r="AI58" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="29"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
         <v>14</v>
       </c>
@@ -7515,8 +7901,15 @@
       <c r="AI59" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="29"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
         <v>12</v>
       </c>
@@ -7622,8 +8015,15 @@
       <c r="AI60" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="29"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
         <v>21</v>
       </c>
@@ -7729,8 +8129,15 @@
       <c r="AI61" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="29"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
         <v>9</v>
       </c>
@@ -7836,8 +8243,15 @@
       <c r="AI62" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="29"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
         <v>22</v>
       </c>
@@ -7943,8 +8357,15 @@
       <c r="AI63" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="29"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
         <v>15</v>
       </c>
@@ -8038,8 +8459,15 @@
       <c r="AI64" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="29"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="26" t="s">
         <v>28</v>
       </c>
@@ -8145,8 +8573,15 @@
       <c r="AI65" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="29"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="26" t="s">
         <v>2</v>
       </c>
@@ -8252,8 +8687,15 @@
       <c r="AI66" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="29"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="26" t="s">
         <v>1</v>
       </c>
@@ -8359,8 +8801,15 @@
       <c r="AI67" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="29"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="26" t="s">
         <v>34</v>
       </c>
@@ -8469,8 +8918,12 @@
       <c r="AJ68" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AK68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="29"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="26" t="s">
         <v>33</v>
       </c>
@@ -8576,8 +9029,15 @@
       <c r="AI69" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL69" s="29"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="26" t="s">
         <v>0</v>
       </c>
@@ -8683,8 +9143,15 @@
       <c r="AI70" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL70" s="29"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="26" t="s">
         <v>8</v>
       </c>
@@ -8790,8 +9257,15 @@
       <c r="AI71" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL71" s="29"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="26" t="s">
         <v>20</v>
       </c>
@@ -8897,8 +9371,15 @@
       <c r="AI72" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="29"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="26" t="s">
         <v>7</v>
       </c>
@@ -9004,8 +9485,15 @@
       <c r="AI73" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="29"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="26" t="s">
         <v>5</v>
       </c>
@@ -9111,8 +9599,15 @@
       <c r="AI74" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="29"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75" s="26" t="s">
         <v>26</v>
       </c>
@@ -9218,11 +9713,15 @@
       <c r="AI75" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ75" t="b">
+        <v>0</v>
+      </c>
       <c r="AK75" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AL75" s="29"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76" s="26" t="s">
         <v>17</v>
       </c>
@@ -9328,8 +9827,15 @@
       <c r="AI76" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="29"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="26" t="s">
         <v>18</v>
       </c>
@@ -9435,8 +9941,15 @@
       <c r="AI77" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="29"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="26" t="s">
         <v>30</v>
       </c>
@@ -9542,8 +10055,15 @@
       <c r="AI78" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="29"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="26" t="s">
         <v>23</v>
       </c>
@@ -9649,8 +10169,15 @@
       <c r="AI79" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL79" s="29"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="26" t="s">
         <v>10</v>
       </c>
@@ -9756,8 +10283,15 @@
       <c r="AI80" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL80" s="29"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A81" s="26" t="s">
         <v>31</v>
       </c>
@@ -9863,8 +10397,15 @@
       <c r="AI81" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL81" s="29"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A82" s="26" t="s">
         <v>4</v>
       </c>
@@ -9970,8 +10511,15 @@
       <c r="AI82" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL82" s="29"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A83" s="26" t="s">
         <v>13</v>
       </c>
@@ -10077,8 +10625,15 @@
       <c r="AI83" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL83" s="29"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A84" s="26" t="s">
         <v>21</v>
       </c>
@@ -10184,8 +10739,15 @@
       <c r="AI84" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL84" s="29"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A85" s="26" t="s">
         <v>11</v>
       </c>
@@ -10291,8 +10853,15 @@
       <c r="AI85" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="29"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A86" s="26" t="s">
         <v>22</v>
       </c>
@@ -10398,8 +10967,15 @@
       <c r="AI86" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL86" s="29"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A87" s="26" t="s">
         <v>14</v>
       </c>
@@ -10505,8 +11081,15 @@
       <c r="AI87" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL87" s="29"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A88" s="26" t="s">
         <v>12</v>
       </c>
@@ -10612,8 +11195,15 @@
       <c r="AI88" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="29"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A89" s="26" t="s">
         <v>19</v>
       </c>
@@ -10719,8 +11309,15 @@
       <c r="AI89" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL89" s="29"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A90" s="26" t="s">
         <v>3</v>
       </c>
@@ -10826,8 +11423,15 @@
       <c r="AI90" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL90" s="29"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A91" s="26" t="s">
         <v>24</v>
       </c>
@@ -10933,8 +11537,15 @@
       <c r="AI91" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL91" s="29"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A92" s="26" t="s">
         <v>9</v>
       </c>
@@ -11040,8 +11651,15 @@
       <c r="AI92" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL92" s="29"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A93" s="26" t="s">
         <v>6</v>
       </c>
@@ -11147,8 +11765,15 @@
       <c r="AI93" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL93" s="29"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A94" s="26" t="s">
         <v>25</v>
       </c>
@@ -11254,8 +11879,15 @@
       <c r="AI94" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL94" s="29"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A95" s="26" t="s">
         <v>15</v>
       </c>
@@ -11349,8 +11981,15 @@
       <c r="AI95" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="29"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A96" s="26" t="s">
         <v>7</v>
       </c>
@@ -11456,8 +12095,15 @@
       <c r="AI96" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="29"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A97" s="26" t="s">
         <v>11</v>
       </c>
@@ -11563,8 +12209,15 @@
       <c r="AI97" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL97" s="29"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A98" s="26" t="s">
         <v>1</v>
       </c>
@@ -11670,8 +12323,15 @@
       <c r="AI98" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL98" s="29"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A99" s="26" t="s">
         <v>33</v>
       </c>
@@ -11777,8 +12437,15 @@
       <c r="AI99" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL99" s="29"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A100" s="26" t="s">
         <v>17</v>
       </c>
@@ -11884,11 +12551,15 @@
       <c r="AI100" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ100" t="b">
+        <v>0</v>
+      </c>
       <c r="AK100" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AL100" s="29"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A101" s="26" t="s">
         <v>30</v>
       </c>
@@ -11994,8 +12665,15 @@
       <c r="AI101" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL101" s="29"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A102" s="26" t="s">
         <v>8</v>
       </c>
@@ -12104,8 +12782,12 @@
       <c r="AJ102" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AK102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL102" s="29"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A103" s="26" t="s">
         <v>9</v>
       </c>
@@ -12211,8 +12893,15 @@
       <c r="AI103" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL103" s="29"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A104" s="26" t="s">
         <v>5</v>
       </c>
@@ -12318,8 +13007,15 @@
       <c r="AI104" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL104" s="29"/>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A105" s="26" t="s">
         <v>28</v>
       </c>
@@ -12425,8 +13121,15 @@
       <c r="AI105" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL105" s="29"/>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A106" s="26" t="s">
         <v>10</v>
       </c>
@@ -12532,8 +13235,15 @@
       <c r="AI106" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK106" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL106" s="29"/>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A107" s="26" t="s">
         <v>31</v>
       </c>
@@ -12639,8 +13349,15 @@
       <c r="AI107" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK107" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL107" s="29"/>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A108" s="26" t="s">
         <v>19</v>
       </c>
@@ -12746,8 +13463,15 @@
       <c r="AI108" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK108" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL108" s="29"/>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A109" s="26" t="s">
         <v>13</v>
       </c>
@@ -12853,8 +13577,15 @@
       <c r="AI109" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK109" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL109" s="29"/>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A110" s="26" t="s">
         <v>34</v>
       </c>
@@ -12960,8 +13691,15 @@
       <c r="AI110" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK110" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL110" s="29"/>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A111" s="26" t="s">
         <v>3</v>
       </c>
@@ -13067,8 +13805,15 @@
       <c r="AI111" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK111" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL111" s="29"/>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A112" s="26" t="s">
         <v>23</v>
       </c>
@@ -13174,9 +13919,15 @@
       <c r="AI112" s="14" t="b">
         <v>0</v>
       </c>
-      <c r="AK112" s="26"/>
+      <c r="AJ112" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK112" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL112" s="29"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A113" s="26" t="s">
         <v>20</v>
       </c>
@@ -13282,8 +14033,15 @@
       <c r="AI113" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK113" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL113" s="29"/>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A114" s="26" t="s">
         <v>2</v>
       </c>
@@ -13389,8 +14147,15 @@
       <c r="AI114" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK114" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL114" s="29"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A115" s="26" t="s">
         <v>0</v>
       </c>
@@ -13496,8 +14261,15 @@
       <c r="AI115" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK115" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL115" s="29"/>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A116" s="26" t="s">
         <v>22</v>
       </c>
@@ -13603,8 +14375,15 @@
       <c r="AI116" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK116" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL116" s="29"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A117" s="26" t="s">
         <v>26</v>
       </c>
@@ -13710,8 +14489,15 @@
       <c r="AI117" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK117" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL117" s="29"/>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A118" s="26" t="s">
         <v>24</v>
       </c>
@@ -13817,8 +14603,15 @@
       <c r="AI118" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK118" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL118" s="29"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A119" s="26" t="s">
         <v>18</v>
       </c>
@@ -13924,8 +14717,15 @@
       <c r="AI119" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK119" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL119" s="29"/>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A120" s="26" t="s">
         <v>21</v>
       </c>
@@ -14031,8 +14831,15 @@
       <c r="AI120" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK120" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL120" s="29"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A121" s="26" t="s">
         <v>4</v>
       </c>
@@ -14138,8 +14945,15 @@
       <c r="AI121" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK121" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL121" s="29"/>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A122" s="26" t="s">
         <v>25</v>
       </c>
@@ -14245,8 +15059,15 @@
       <c r="AI122" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK122" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL122" s="29"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A123" s="26" t="s">
         <v>6</v>
       </c>
@@ -14352,8 +15173,15 @@
       <c r="AI123" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK123" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL123" s="29"/>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A124" s="26" t="s">
         <v>12</v>
       </c>
@@ -14459,8 +15287,15 @@
       <c r="AI124" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK124" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL124" s="29"/>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A125" s="26" t="s">
         <v>14</v>
       </c>
@@ -14566,8 +15401,15 @@
       <c r="AI125" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK125" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL125" s="29"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A126" s="26" t="s">
         <v>15</v>
       </c>
@@ -14660,8 +15502,15 @@
       <c r="AI126" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK126" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL126" s="29"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A127" s="26" t="s">
         <v>23</v>
       </c>
@@ -14767,8 +15616,15 @@
       <c r="AI127" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK127" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL127" s="29"/>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A128" s="26" t="s">
         <v>33</v>
       </c>
@@ -14874,8 +15730,15 @@
       <c r="AI128" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK128" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL128" s="29"/>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A129" s="26" t="s">
         <v>22</v>
       </c>
@@ -14981,8 +15844,15 @@
       <c r="AI129" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK129" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL129" s="29"/>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A130" s="26" t="s">
         <v>26</v>
       </c>
@@ -15088,8 +15958,15 @@
       <c r="AI130" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ130" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK130" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL130" s="29"/>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A131" s="26" t="s">
         <v>1</v>
       </c>
@@ -15195,8 +16072,15 @@
       <c r="AI131" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ131" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK131" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL131" s="29"/>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A132" s="26" t="s">
         <v>34</v>
       </c>
@@ -15302,8 +16186,15 @@
       <c r="AI132" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ132" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK132" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL132" s="29"/>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A133" s="26" t="s">
         <v>8</v>
       </c>
@@ -15409,8 +16300,15 @@
       <c r="AI133" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK133" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL133" s="29"/>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A134" s="26" t="s">
         <v>17</v>
       </c>
@@ -15516,8 +16414,15 @@
       <c r="AI134" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK134" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL134" s="29"/>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A135" s="26" t="s">
         <v>11</v>
       </c>
@@ -15623,8 +16528,15 @@
       <c r="AI135" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK135" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL135" s="29"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A136" s="26" t="s">
         <v>20</v>
       </c>
@@ -15733,8 +16645,12 @@
       <c r="AJ136" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AK136" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL136" s="29"/>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A137" s="26" t="s">
         <v>31</v>
       </c>
@@ -15840,8 +16756,15 @@
       <c r="AI137" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK137" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL137" s="29"/>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A138" s="26" t="s">
         <v>7</v>
       </c>
@@ -15947,11 +16870,15 @@
       <c r="AI138" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ138" t="b">
+        <v>0</v>
+      </c>
       <c r="AK138" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AL138" s="29"/>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A139" s="26" t="s">
         <v>18</v>
       </c>
@@ -16057,8 +16984,15 @@
       <c r="AI139" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK139" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL139" s="29"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A140" s="26" t="s">
         <v>10</v>
       </c>
@@ -16164,8 +17098,15 @@
       <c r="AI140" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK140" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL140" s="29"/>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A141" s="26" t="s">
         <v>24</v>
       </c>
@@ -16271,8 +17212,15 @@
       <c r="AI141" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK141" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL141" s="29"/>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A142" s="26" t="s">
         <v>2</v>
       </c>
@@ -16378,8 +17326,15 @@
       <c r="AI142" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK142" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL142" s="29"/>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A143" s="26" t="s">
         <v>28</v>
       </c>
@@ -16485,8 +17440,15 @@
       <c r="AI143" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK143" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL143" s="29"/>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A144" s="26" t="s">
         <v>29</v>
       </c>
@@ -16592,8 +17554,15 @@
       <c r="AI144" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK144" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL144" s="29"/>
     </row>
-    <row r="145" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A145" s="26" t="s">
         <v>30</v>
       </c>
@@ -16699,8 +17668,15 @@
       <c r="AI145" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK145" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL145" s="29"/>
     </row>
-    <row r="146" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A146" s="26" t="s">
         <v>21</v>
       </c>
@@ -16806,8 +17782,15 @@
       <c r="AI146" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL146" s="29"/>
     </row>
-    <row r="147" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A147" s="26" t="s">
         <v>13</v>
       </c>
@@ -16913,8 +17896,15 @@
       <c r="AI147" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK147" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL147" s="29"/>
     </row>
-    <row r="148" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A148" s="26" t="s">
         <v>19</v>
       </c>
@@ -17020,8 +18010,15 @@
       <c r="AI148" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK148" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL148" s="29"/>
     </row>
-    <row r="149" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A149" s="26" t="s">
         <v>25</v>
       </c>
@@ -17127,8 +18124,15 @@
       <c r="AI149" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK149" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL149" s="29"/>
     </row>
-    <row r="150" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A150" s="26" t="s">
         <v>4</v>
       </c>
@@ -17234,8 +18238,15 @@
       <c r="AI150" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK150" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL150" s="29"/>
     </row>
-    <row r="151" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A151" s="26" t="s">
         <v>9</v>
       </c>
@@ -17341,8 +18352,15 @@
       <c r="AI151" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ151" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK151" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL151" s="29"/>
     </row>
-    <row r="152" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A152" s="26" t="s">
         <v>5</v>
       </c>
@@ -17448,8 +18466,15 @@
       <c r="AI152" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ152" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK152" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL152" s="29"/>
     </row>
-    <row r="153" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A153" s="26" t="s">
         <v>3</v>
       </c>
@@ -17555,8 +18580,15 @@
       <c r="AI153" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ153" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK153" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL153" s="29"/>
     </row>
-    <row r="154" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A154" s="26" t="s">
         <v>6</v>
       </c>
@@ -17662,8 +18694,15 @@
       <c r="AI154" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ154" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK154" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL154" s="29"/>
     </row>
-    <row r="155" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A155" s="26" t="s">
         <v>0</v>
       </c>
@@ -17769,8 +18808,15 @@
       <c r="AI155" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ155" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK155" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL155" s="29"/>
     </row>
-    <row r="156" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A156" s="26" t="s">
         <v>14</v>
       </c>
@@ -17876,8 +18922,15 @@
       <c r="AI156" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ156" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK156" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL156" s="29"/>
     </row>
-    <row r="157" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A157" s="26" t="s">
         <v>15</v>
       </c>
@@ -17971,8 +19024,15 @@
       <c r="AI157" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ157" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK157" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL157" s="29"/>
     </row>
-    <row r="158" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A158" s="26" t="s">
         <v>8</v>
       </c>
@@ -18081,8 +19141,12 @@
       <c r="AJ158" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AK158" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL158" s="29"/>
     </row>
-    <row r="159" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A159" s="26" t="s">
         <v>34</v>
       </c>
@@ -18188,8 +19252,15 @@
       <c r="AI159" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK159" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL159" s="29"/>
     </row>
-    <row r="160" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A160" s="26" t="s">
         <v>33</v>
       </c>
@@ -18295,8 +19366,15 @@
       <c r="AI160" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ160" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK160" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL160" s="29"/>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A161" s="26" t="s">
         <v>11</v>
       </c>
@@ -18402,8 +19480,15 @@
       <c r="AI161" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ161" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK161" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL161" s="29"/>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A162" s="26" t="s">
         <v>23</v>
       </c>
@@ -18509,11 +19594,15 @@
       <c r="AI162" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ162" t="b">
+        <v>0</v>
+      </c>
       <c r="AK162" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AL162" s="29"/>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A163" s="26" t="s">
         <v>1</v>
       </c>
@@ -18619,8 +19708,15 @@
       <c r="AI163" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ163" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK163" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL163" s="29"/>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A164" s="26" t="s">
         <v>20</v>
       </c>
@@ -18726,8 +19822,15 @@
       <c r="AI164" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ164" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK164" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL164" s="29"/>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A165" s="26" t="s">
         <v>9</v>
       </c>
@@ -18833,8 +19936,15 @@
       <c r="AI165" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK165" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL165" s="29"/>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A166" s="26" t="s">
         <v>25</v>
       </c>
@@ -18940,8 +20050,15 @@
       <c r="AI166" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ166" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK166" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL166" s="29"/>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A167" s="26" t="s">
         <v>28</v>
       </c>
@@ -19047,8 +20164,15 @@
       <c r="AI167" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ167" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK167" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL167" s="29"/>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A168" s="26" t="s">
         <v>26</v>
       </c>
@@ -19154,8 +20278,15 @@
       <c r="AI168" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ168" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK168" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL168" s="29"/>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A169" s="26" t="s">
         <v>13</v>
       </c>
@@ -19261,8 +20392,15 @@
       <c r="AI169" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ169" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK169" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL169" s="29"/>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A170" s="26" t="s">
         <v>10</v>
       </c>
@@ -19368,8 +20506,15 @@
       <c r="AI170" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ170" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK170" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL170" s="29"/>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A171" s="26" t="s">
         <v>7</v>
       </c>
@@ -19475,8 +20620,15 @@
       <c r="AI171" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ171" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK171" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL171" s="29"/>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A172" s="26" t="s">
         <v>24</v>
       </c>
@@ -19582,8 +20734,15 @@
       <c r="AI172" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ172" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK172" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL172" s="29"/>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A173" s="26" t="s">
         <v>31</v>
       </c>
@@ -19689,8 +20848,15 @@
       <c r="AI173" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ173" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK173" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL173" s="29"/>
     </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A174" s="26" t="s">
         <v>5</v>
       </c>
@@ -19796,8 +20962,15 @@
       <c r="AI174" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ174" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK174" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL174" s="29"/>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A175" s="26" t="s">
         <v>29</v>
       </c>
@@ -19903,8 +21076,15 @@
       <c r="AI175" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ175" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK175" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL175" s="29"/>
     </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A176" s="26" t="s">
         <v>19</v>
       </c>
@@ -20010,8 +21190,15 @@
       <c r="AI176" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ176" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK176" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL176" s="29"/>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A177" s="26" t="s">
         <v>18</v>
       </c>
@@ -20117,8 +21304,15 @@
       <c r="AI177" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ177" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK177" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL177" s="29"/>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A178" s="26" t="s">
         <v>14</v>
       </c>
@@ -20224,8 +21418,15 @@
       <c r="AI178" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ178" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK178" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL178" s="29"/>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A179" s="26" t="s">
         <v>21</v>
       </c>
@@ -20331,8 +21532,15 @@
       <c r="AI179" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ179" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK179" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL179" s="29"/>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A180" s="26" t="s">
         <v>2</v>
       </c>
@@ -20438,8 +21646,15 @@
       <c r="AI180" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ180" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK180" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL180" s="29"/>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A181" s="26" t="s">
         <v>6</v>
       </c>
@@ -20545,8 +21760,15 @@
       <c r="AI181" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ181" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK181" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL181" s="29"/>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A182" s="26" t="s">
         <v>3</v>
       </c>
@@ -20652,8 +21874,15 @@
       <c r="AI182" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ182" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK182" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL182" s="29"/>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A183" s="26" t="s">
         <v>4</v>
       </c>
@@ -20759,8 +21988,15 @@
       <c r="AI183" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ183" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK183" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL183" s="29"/>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A184" s="26" t="s">
         <v>30</v>
       </c>
@@ -20866,8 +22102,15 @@
       <c r="AI184" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ184" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK184" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL184" s="29"/>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A185" s="26" t="s">
         <v>17</v>
       </c>
@@ -20973,8 +22216,15 @@
       <c r="AI185" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ185" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK185" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL185" s="29"/>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A186" s="26" t="s">
         <v>22</v>
       </c>
@@ -21080,8 +22330,15 @@
       <c r="AI186" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK186" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL186" s="29"/>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A187" s="26" t="s">
         <v>0</v>
       </c>
@@ -21187,8 +22444,15 @@
       <c r="AI187" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK187" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL187" s="29"/>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A188" s="26" t="s">
         <v>15</v>
       </c>
@@ -21282,8 +22546,15 @@
       <c r="AI188" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK188" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL188" s="29"/>
     </row>
-    <row r="189" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="31" t="s">
         <v>9</v>
       </c>
@@ -21389,8 +22660,15 @@
       <c r="AI189" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ189" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK189" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL189" s="29"/>
     </row>
-    <row r="190" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="31" t="s">
         <v>7</v>
       </c>
@@ -21496,8 +22774,15 @@
       <c r="AI190" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ190" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK190" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL190" s="29"/>
     </row>
-    <row r="191" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="31" t="s">
         <v>1</v>
       </c>
@@ -21603,8 +22888,15 @@
       <c r="AI191" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ191" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK191" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL191" s="29"/>
     </row>
-    <row r="192" spans="1:35" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="31" t="s">
         <v>34</v>
       </c>
@@ -21710,8 +23002,15 @@
       <c r="AI192" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ192" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK192" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL192" s="29"/>
     </row>
-    <row r="193" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="31" t="s">
         <v>30</v>
       </c>
@@ -21817,8 +23116,15 @@
       <c r="AI193" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ193" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK193" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL193" s="29"/>
     </row>
-    <row r="194" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="31" t="s">
         <v>18</v>
       </c>
@@ -21924,8 +23230,15 @@
       <c r="AI194" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ194" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK194" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL194" s="29"/>
     </row>
-    <row r="195" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="31" t="s">
         <v>10</v>
       </c>
@@ -22031,8 +23344,15 @@
       <c r="AI195" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ195" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK195" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL195" s="29"/>
     </row>
-    <row r="196" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="31" t="s">
         <v>21</v>
       </c>
@@ -22138,11 +23458,15 @@
       <c r="AI196" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ196" s="26" t="b">
+        <v>0</v>
+      </c>
       <c r="AK196" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AL196" s="29"/>
     </row>
-    <row r="197" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="31" t="s">
         <v>23</v>
       </c>
@@ -22248,8 +23572,15 @@
       <c r="AI197" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ197" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK197" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL197" s="29"/>
     </row>
-    <row r="198" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="31" t="s">
         <v>8</v>
       </c>
@@ -22355,8 +23686,15 @@
       <c r="AI198" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ198" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK198" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL198" s="29"/>
     </row>
-    <row r="199" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="31" t="s">
         <v>29</v>
       </c>
@@ -22462,8 +23800,15 @@
       <c r="AI199" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ199" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK199" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL199" s="29"/>
     </row>
-    <row r="200" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="31" t="s">
         <v>26</v>
       </c>
@@ -22569,8 +23914,15 @@
       <c r="AI200" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ200" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK200" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL200" s="29"/>
     </row>
-    <row r="201" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="31" t="s">
         <v>20</v>
       </c>
@@ -22679,8 +24031,12 @@
       <c r="AJ201" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AK201" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL201" s="29"/>
     </row>
-    <row r="202" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A202" s="31" t="s">
         <v>0</v>
       </c>
@@ -22786,8 +24142,15 @@
       <c r="AI202" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ202" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK202" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL202" s="29"/>
     </row>
-    <row r="203" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A203" s="31" t="s">
         <v>13</v>
       </c>
@@ -22893,8 +24256,15 @@
       <c r="AI203" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ203" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK203" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL203" s="29"/>
     </row>
-    <row r="204" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="31" t="s">
         <v>28</v>
       </c>
@@ -23000,8 +24370,15 @@
       <c r="AI204" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AJ204" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK204" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL204" s="29"/>
     </row>
-    <row r="205" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="31" t="s">
         <v>3</v>
       </c>
@@ -23107,8 +24484,15 @@
       <c r="AI205" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ205" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="29"/>
     </row>
-    <row r="206" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="31" t="s">
         <v>2</v>
       </c>
@@ -23214,8 +24598,15 @@
       <c r="AI206" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ206" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK206" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL206" s="29"/>
     </row>
-    <row r="207" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="31" t="s">
         <v>14</v>
       </c>
@@ -23321,8 +24712,15 @@
       <c r="AI207" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ207" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK207" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL207" s="29"/>
     </row>
-    <row r="208" spans="1:37" s="26" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:38" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A208" s="31" t="s">
         <v>22</v>
       </c>
@@ -23428,6 +24826,13 @@
       <c r="AI208" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ208" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK208" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL208" s="29"/>
     </row>
     <row r="209" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="31" t="s">
@@ -23535,6 +24940,13 @@
       <c r="AI209" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ209" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK209" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL209" s="29"/>
     </row>
     <row r="210" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="31" t="s">
@@ -23642,6 +25054,13 @@
       <c r="AI210" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ210" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK210" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL210" s="29"/>
     </row>
     <row r="211" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A211" s="31" t="s">
@@ -23749,6 +25168,13 @@
       <c r="AI211" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ211" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK211" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL211" s="29"/>
     </row>
     <row r="212" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="31" t="s">
@@ -23856,6 +25282,13 @@
       <c r="AI212" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ212" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK212" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL212" s="29"/>
     </row>
     <row r="213" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A213" s="31" t="s">
@@ -23963,6 +25396,13 @@
       <c r="AI213" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ213" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK213" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL213" s="29"/>
     </row>
     <row r="214" spans="1:39" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A214" s="31" t="s">
@@ -24070,6 +25510,13 @@
       <c r="AI214" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ214" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK214" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL214" s="29"/>
     </row>
     <row r="215" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A215" s="31" t="s">
@@ -24177,6 +25624,13 @@
       <c r="AI215" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ215" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK215" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL215" s="29"/>
     </row>
     <row r="216" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A216" s="31" t="s">
@@ -24284,6 +25738,13 @@
       <c r="AI216" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ216" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK216" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL216" s="29"/>
     </row>
     <row r="217" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A217" s="31" t="s">
@@ -24391,6 +25852,13 @@
       <c r="AI217" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ217" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK217" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL217" s="29"/>
     </row>
     <row r="218" spans="1:39" s="26" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A218" s="31" t="s">
@@ -24498,6 +25966,13 @@
       <c r="AI218" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ218" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK218" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL218" s="29"/>
     </row>
     <row r="219" spans="1:39" s="26" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A219" s="31" t="s">
@@ -24592,6 +26067,13 @@
       <c r="AI219" s="29" t="b">
         <v>0</v>
       </c>
+      <c r="AJ219" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK219" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL219" s="29"/>
     </row>
     <row r="220" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A220" s="26" t="s">
@@ -24699,9 +26181,13 @@
       <c r="AI220" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ220" t="b">
+        <v>0</v>
+      </c>
       <c r="AK220" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AL220" s="29"/>
     </row>
     <row r="221" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A221" s="26" t="s">
@@ -24809,6 +26295,13 @@
       <c r="AI221" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ221" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK221" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL221" s="29"/>
       <c r="AM221" s="29"/>
     </row>
     <row r="222" spans="1:39" x14ac:dyDescent="0.3">
@@ -24917,6 +26410,13 @@
       <c r="AI222" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ222" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK222" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL222" s="29"/>
       <c r="AM222" s="29"/>
     </row>
     <row r="223" spans="1:39" x14ac:dyDescent="0.3">
@@ -25025,6 +26525,13 @@
       <c r="AI223" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ223" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK223" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL223" s="29"/>
       <c r="AM223" s="29"/>
     </row>
     <row r="224" spans="1:39" x14ac:dyDescent="0.3">
@@ -25133,6 +26640,13 @@
       <c r="AI224" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ224" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK224" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL224" s="29"/>
       <c r="AM224" s="29"/>
     </row>
     <row r="225" spans="1:39" x14ac:dyDescent="0.3">
@@ -25241,6 +26755,13 @@
       <c r="AI225" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ225" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK225" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL225" s="29"/>
       <c r="AM225" s="29"/>
     </row>
     <row r="226" spans="1:39" x14ac:dyDescent="0.3">
@@ -25349,6 +26870,13 @@
       <c r="AI226" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ226" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK226" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL226" s="29"/>
       <c r="AM226" s="29"/>
     </row>
     <row r="227" spans="1:39" x14ac:dyDescent="0.3">
@@ -25460,6 +26988,10 @@
       <c r="AJ227" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AK227" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL227" s="29"/>
       <c r="AM227" s="29"/>
     </row>
     <row r="228" spans="1:39" x14ac:dyDescent="0.3">
@@ -25568,6 +27100,13 @@
       <c r="AI228" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ228" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK228" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL228" s="29"/>
       <c r="AM228" s="29"/>
     </row>
     <row r="229" spans="1:39" x14ac:dyDescent="0.3">
@@ -25676,6 +27215,13 @@
       <c r="AI229" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ229" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK229" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL229" s="29"/>
       <c r="AM229" s="29"/>
     </row>
     <row r="230" spans="1:39" x14ac:dyDescent="0.3">
@@ -25784,6 +27330,13 @@
       <c r="AI230" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ230" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK230" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL230" s="29"/>
       <c r="AM230" s="29"/>
     </row>
     <row r="231" spans="1:39" x14ac:dyDescent="0.3">
@@ -25895,6 +27448,10 @@
       <c r="AJ231" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AK231" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL231" s="29"/>
       <c r="AM231" s="29"/>
     </row>
     <row r="232" spans="1:39" x14ac:dyDescent="0.3">
@@ -26003,6 +27560,13 @@
       <c r="AI232" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ232" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK232" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL232" s="29"/>
       <c r="AM232" s="29"/>
     </row>
     <row r="233" spans="1:39" x14ac:dyDescent="0.3">
@@ -26111,6 +27675,13 @@
       <c r="AI233" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ233" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK233" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL233" s="29"/>
       <c r="AM233" s="29"/>
     </row>
     <row r="234" spans="1:39" x14ac:dyDescent="0.3">
@@ -26219,6 +27790,13 @@
       <c r="AI234" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ234" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK234" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL234" s="29"/>
       <c r="AM234" s="29"/>
     </row>
     <row r="235" spans="1:39" x14ac:dyDescent="0.3">
@@ -26327,6 +27905,13 @@
       <c r="AI235" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ235" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK235" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL235" s="29"/>
       <c r="AM235" s="29"/>
     </row>
     <row r="236" spans="1:39" x14ac:dyDescent="0.3">
@@ -26435,6 +28020,13 @@
       <c r="AI236" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ236" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK236" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL236" s="29"/>
       <c r="AM236" s="29"/>
     </row>
     <row r="237" spans="1:39" x14ac:dyDescent="0.3">
@@ -26543,6 +28135,13 @@
       <c r="AI237" s="14" t="b">
         <v>1</v>
       </c>
+      <c r="AJ237" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK237" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL237" s="29"/>
       <c r="AM237" s="29"/>
     </row>
     <row r="238" spans="1:39" x14ac:dyDescent="0.3">
@@ -26651,6 +28250,13 @@
       <c r="AI238" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ238" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK238" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL238" s="29"/>
       <c r="AM238" s="29"/>
     </row>
     <row r="239" spans="1:39" x14ac:dyDescent="0.3">
@@ -26759,6 +28365,13 @@
       <c r="AI239" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ239" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK239" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL239" s="29"/>
       <c r="AM239" s="29"/>
     </row>
     <row r="240" spans="1:39" x14ac:dyDescent="0.3">
@@ -26867,6 +28480,13 @@
       <c r="AI240" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ240" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK240" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL240" s="29"/>
       <c r="AM240" s="29"/>
     </row>
     <row r="241" spans="1:39" x14ac:dyDescent="0.3">
@@ -26975,6 +28595,13 @@
       <c r="AI241" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ241" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK241" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL241" s="29"/>
       <c r="AM241" s="29"/>
     </row>
     <row r="242" spans="1:39" x14ac:dyDescent="0.3">
@@ -27083,6 +28710,13 @@
       <c r="AI242" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ242" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK242" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL242" s="29"/>
       <c r="AM242" s="29"/>
     </row>
     <row r="243" spans="1:39" x14ac:dyDescent="0.3">
@@ -27191,6 +28825,13 @@
       <c r="AI243" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ243" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK243" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL243" s="29"/>
       <c r="AM243" s="29"/>
     </row>
     <row r="244" spans="1:39" x14ac:dyDescent="0.3">
@@ -27299,6 +28940,13 @@
       <c r="AI244" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ244" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK244" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL244" s="29"/>
       <c r="AM244" s="29"/>
     </row>
     <row r="245" spans="1:39" x14ac:dyDescent="0.3">
@@ -27407,6 +29055,13 @@
       <c r="AI245" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ245" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK245" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL245" s="29"/>
       <c r="AM245" s="29"/>
     </row>
     <row r="246" spans="1:39" x14ac:dyDescent="0.3">
@@ -27515,6 +29170,13 @@
       <c r="AI246" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ246" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK246" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL246" s="29"/>
       <c r="AM246" s="29"/>
     </row>
     <row r="247" spans="1:39" x14ac:dyDescent="0.3">
@@ -27623,6 +29285,13 @@
       <c r="AI247" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ247" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK247" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL247" s="29"/>
       <c r="AM247" s="29"/>
     </row>
     <row r="248" spans="1:39" x14ac:dyDescent="0.3">
@@ -27731,6 +29400,13 @@
       <c r="AI248" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ248" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK248" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL248" s="29"/>
       <c r="AM248" s="29"/>
     </row>
     <row r="249" spans="1:39" x14ac:dyDescent="0.3">
@@ -27839,6 +29515,13 @@
       <c r="AI249" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ249" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK249" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL249" s="29"/>
       <c r="AM249" s="29"/>
     </row>
     <row r="250" spans="1:39" x14ac:dyDescent="0.3">
@@ -27935,6 +29618,13 @@
       <c r="AI250" s="14" t="b">
         <v>0</v>
       </c>
+      <c r="AJ250" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK250" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL250" s="29"/>
       <c r="AM250" s="29"/>
     </row>
     <row r="251" spans="1:39" x14ac:dyDescent="0.3">
@@ -28043,6 +29733,13 @@
       <c r="AI251" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ251" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK251" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL251" s="29"/>
       <c r="AM251" s="29"/>
     </row>
     <row r="252" spans="1:39" x14ac:dyDescent="0.3">
@@ -28151,6 +29848,13 @@
       <c r="AI252" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ252" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK252" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL252" s="29"/>
       <c r="AM252" s="29"/>
     </row>
     <row r="253" spans="1:39" x14ac:dyDescent="0.3">
@@ -28262,6 +29966,10 @@
       <c r="AJ253" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AK253" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL253" s="29"/>
       <c r="AM253" s="29"/>
     </row>
     <row r="254" spans="1:39" x14ac:dyDescent="0.3">
@@ -28370,6 +30078,13 @@
       <c r="AI254" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ254" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK254" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL254" s="29"/>
       <c r="AM254" s="29"/>
     </row>
     <row r="255" spans="1:39" x14ac:dyDescent="0.3">
@@ -28478,6 +30193,13 @@
       <c r="AI255" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ255" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK255" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL255" s="29"/>
       <c r="AM255" s="29"/>
     </row>
     <row r="256" spans="1:39" x14ac:dyDescent="0.3">
@@ -28586,6 +30308,13 @@
       <c r="AI256" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ256" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK256" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL256" s="29"/>
       <c r="AM256" s="29"/>
     </row>
     <row r="257" spans="1:39" x14ac:dyDescent="0.3">
@@ -28694,6 +30423,13 @@
       <c r="AI257" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ257" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK257" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL257" s="29"/>
       <c r="AM257" s="29"/>
     </row>
     <row r="258" spans="1:39" x14ac:dyDescent="0.3">
@@ -28802,6 +30538,13 @@
       <c r="AI258" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK258" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL258" s="29"/>
       <c r="AM258" s="29"/>
     </row>
     <row r="259" spans="1:39" x14ac:dyDescent="0.3">
@@ -28910,6 +30653,13 @@
       <c r="AI259" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ259" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK259" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL259" s="29"/>
       <c r="AM259" s="29"/>
     </row>
     <row r="260" spans="1:39" x14ac:dyDescent="0.3">
@@ -29018,6 +30768,13 @@
       <c r="AI260" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ260" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK260" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL260" s="29"/>
       <c r="AM260" s="29"/>
     </row>
     <row r="261" spans="1:39" x14ac:dyDescent="0.3">
@@ -29126,6 +30883,13 @@
       <c r="AI261" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ261" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK261" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL261" s="29"/>
       <c r="AM261" s="29"/>
     </row>
     <row r="262" spans="1:39" x14ac:dyDescent="0.3">
@@ -29234,6 +30998,13 @@
       <c r="AI262" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ262" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK262" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL262" s="29"/>
       <c r="AM262" s="29"/>
     </row>
     <row r="263" spans="1:39" x14ac:dyDescent="0.3">
@@ -29342,6 +31113,13 @@
       <c r="AI263" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ263" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK263" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL263" s="29"/>
       <c r="AM263" s="29"/>
     </row>
     <row r="264" spans="1:39" x14ac:dyDescent="0.3">
@@ -29450,6 +31228,13 @@
       <c r="AI264" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ264" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK264" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL264" s="29"/>
       <c r="AM264" s="29"/>
     </row>
     <row r="265" spans="1:39" x14ac:dyDescent="0.3">
@@ -29558,6 +31343,13 @@
       <c r="AI265" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ265" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK265" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL265" s="29"/>
       <c r="AM265" s="29"/>
     </row>
     <row r="266" spans="1:39" x14ac:dyDescent="0.3">
@@ -29666,6 +31458,13 @@
       <c r="AI266" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ266" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK266" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL266" s="29"/>
       <c r="AM266" s="29"/>
     </row>
     <row r="267" spans="1:39" x14ac:dyDescent="0.3">
@@ -29774,6 +31573,13 @@
       <c r="AI267" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ267" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK267" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL267" s="29"/>
       <c r="AM267" s="29"/>
     </row>
     <row r="268" spans="1:39" x14ac:dyDescent="0.3">
@@ -29882,6 +31688,13 @@
       <c r="AI268" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ268" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK268" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL268" s="29"/>
       <c r="AM268" s="29"/>
     </row>
     <row r="269" spans="1:39" x14ac:dyDescent="0.3">
@@ -29990,9 +31803,13 @@
       <c r="AI269" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ269" t="b">
+        <v>0</v>
+      </c>
       <c r="AK269" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AL269" s="29"/>
       <c r="AM269" s="29"/>
     </row>
     <row r="270" spans="1:39" x14ac:dyDescent="0.3">
@@ -30101,6 +31918,13 @@
       <c r="AI270" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ270" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK270" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL270" s="29"/>
       <c r="AM270" s="29"/>
     </row>
     <row r="271" spans="1:39" x14ac:dyDescent="0.3">
@@ -30209,6 +32033,13 @@
       <c r="AI271" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ271" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK271" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL271" s="29"/>
       <c r="AM271" s="29"/>
     </row>
     <row r="272" spans="1:39" x14ac:dyDescent="0.3">
@@ -30317,6 +32148,13 @@
       <c r="AI272" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ272" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK272" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL272" s="29"/>
       <c r="AM272" s="29"/>
     </row>
     <row r="273" spans="1:39" x14ac:dyDescent="0.3">
@@ -30425,6 +32263,13 @@
       <c r="AI273" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ273" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK273" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL273" s="29"/>
       <c r="AM273" s="29"/>
     </row>
     <row r="274" spans="1:39" x14ac:dyDescent="0.3">
@@ -30533,6 +32378,13 @@
       <c r="AI274" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ274" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK274" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL274" s="29"/>
       <c r="AM274" s="29"/>
     </row>
     <row r="275" spans="1:39" x14ac:dyDescent="0.3">
@@ -30641,6 +32493,13 @@
       <c r="AI275" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ275" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK275" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL275" s="29"/>
       <c r="AM275" s="29"/>
     </row>
     <row r="276" spans="1:39" x14ac:dyDescent="0.3">
@@ -30749,6 +32608,13 @@
       <c r="AI276" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ276" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK276" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL276" s="29"/>
       <c r="AM276" s="29"/>
     </row>
     <row r="277" spans="1:39" x14ac:dyDescent="0.3">
@@ -30857,6 +32723,13 @@
       <c r="AI277" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ277" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK277" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL277" s="29"/>
       <c r="AM277" s="29"/>
     </row>
     <row r="278" spans="1:39" x14ac:dyDescent="0.3">
@@ -30965,6 +32838,13 @@
       <c r="AI278" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ278" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK278" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL278" s="29"/>
       <c r="AM278" s="29"/>
     </row>
     <row r="279" spans="1:39" x14ac:dyDescent="0.3">
@@ -31073,6 +32953,13 @@
       <c r="AI279" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ279" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK279" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL279" s="29"/>
       <c r="AM279" s="29"/>
     </row>
     <row r="280" spans="1:39" x14ac:dyDescent="0.3">
@@ -31181,6 +33068,13 @@
       <c r="AI280" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ280" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK280" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL280" s="29"/>
       <c r="AM280" s="29"/>
     </row>
     <row r="281" spans="1:39" x14ac:dyDescent="0.3">
@@ -31277,6 +33171,13 @@
       <c r="AI281" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ281" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK281" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL281" s="29"/>
       <c r="AM281" s="29"/>
     </row>
     <row r="282" spans="1:39" x14ac:dyDescent="0.3">
@@ -31385,6 +33286,13 @@
       <c r="AI282" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ282" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK282" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL282" s="29"/>
       <c r="AM282" s="29"/>
     </row>
     <row r="283" spans="1:39" x14ac:dyDescent="0.3">
@@ -31493,6 +33401,13 @@
       <c r="AI283" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ283" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK283" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL283" s="29"/>
       <c r="AM283" s="29"/>
     </row>
     <row r="284" spans="1:39" x14ac:dyDescent="0.3">
@@ -31601,9 +33516,13 @@
       <c r="AI284" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ284" t="b">
+        <v>0</v>
+      </c>
       <c r="AK284" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AL284" s="29"/>
       <c r="AM284" s="29"/>
     </row>
     <row r="285" spans="1:39" x14ac:dyDescent="0.3">
@@ -31712,6 +33631,13 @@
       <c r="AI285" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ285" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK285" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL285" s="29"/>
       <c r="AM285" s="29"/>
     </row>
     <row r="286" spans="1:39" x14ac:dyDescent="0.3">
@@ -31820,6 +33746,13 @@
       <c r="AI286" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ286" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK286" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL286" s="29"/>
       <c r="AM286" s="29"/>
     </row>
     <row r="287" spans="1:39" x14ac:dyDescent="0.3">
@@ -31928,6 +33861,13 @@
       <c r="AI287" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ287" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK287" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL287" s="29"/>
       <c r="AM287" s="29"/>
     </row>
     <row r="288" spans="1:39" x14ac:dyDescent="0.3">
@@ -32036,6 +33976,13 @@
       <c r="AI288" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ288" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK288" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL288" s="29"/>
       <c r="AM288" s="29"/>
     </row>
     <row r="289" spans="1:39" x14ac:dyDescent="0.3">
@@ -32147,6 +34094,10 @@
       <c r="AJ289" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AK289" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL289" s="29"/>
       <c r="AM289" s="29"/>
     </row>
     <row r="290" spans="1:39" x14ac:dyDescent="0.3">
@@ -32255,6 +34206,13 @@
       <c r="AI290" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ290" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK290" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL290" s="29"/>
       <c r="AM290" s="29"/>
     </row>
     <row r="291" spans="1:39" x14ac:dyDescent="0.3">
@@ -32363,6 +34321,13 @@
       <c r="AI291" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ291" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK291" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL291" s="29"/>
       <c r="AM291" s="29"/>
     </row>
     <row r="292" spans="1:39" x14ac:dyDescent="0.3">
@@ -32471,6 +34436,13 @@
       <c r="AI292" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ292" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK292" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL292" s="29"/>
       <c r="AM292" s="29"/>
     </row>
     <row r="293" spans="1:39" x14ac:dyDescent="0.3">
@@ -32579,6 +34551,13 @@
       <c r="AI293" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ293" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK293" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL293" s="29"/>
       <c r="AM293" s="29"/>
     </row>
     <row r="294" spans="1:39" x14ac:dyDescent="0.3">
@@ -32687,6 +34666,13 @@
       <c r="AI294" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ294" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK294" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL294" s="29"/>
       <c r="AM294" s="29"/>
     </row>
     <row r="295" spans="1:39" x14ac:dyDescent="0.3">
@@ -32795,6 +34781,13 @@
       <c r="AI295" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ295" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK295" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL295" s="29"/>
       <c r="AM295" s="29"/>
     </row>
     <row r="296" spans="1:39" x14ac:dyDescent="0.3">
@@ -32903,6 +34896,13 @@
       <c r="AI296" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ296" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK296" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL296" s="29"/>
       <c r="AM296" s="29"/>
     </row>
     <row r="297" spans="1:39" x14ac:dyDescent="0.3">
@@ -33011,6 +35011,13 @@
       <c r="AI297" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ297" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK297" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL297" s="29"/>
       <c r="AM297" s="29"/>
     </row>
     <row r="298" spans="1:39" x14ac:dyDescent="0.3">
@@ -33119,6 +35126,13 @@
       <c r="AI298" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ298" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK298" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL298" s="29"/>
       <c r="AM298" s="29"/>
     </row>
     <row r="299" spans="1:39" x14ac:dyDescent="0.3">
@@ -33227,6 +35241,13 @@
       <c r="AI299" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ299" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK299" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL299" s="29"/>
       <c r="AM299" s="29"/>
     </row>
     <row r="300" spans="1:39" x14ac:dyDescent="0.3">
@@ -33335,6 +35356,13 @@
       <c r="AI300" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ300" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK300" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL300" s="29"/>
       <c r="AM300" s="29"/>
     </row>
     <row r="301" spans="1:39" x14ac:dyDescent="0.3">
@@ -33443,6 +35471,13 @@
       <c r="AI301" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ301" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK301" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL301" s="29"/>
       <c r="AM301" s="29"/>
     </row>
     <row r="302" spans="1:39" x14ac:dyDescent="0.3">
@@ -33551,6 +35586,13 @@
       <c r="AI302" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ302" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK302" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL302" s="29"/>
       <c r="AM302" s="29"/>
     </row>
     <row r="303" spans="1:39" x14ac:dyDescent="0.3">
@@ -33659,6 +35701,13 @@
       <c r="AI303" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ303" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK303" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL303" s="29"/>
       <c r="AM303" s="29"/>
     </row>
     <row r="304" spans="1:39" x14ac:dyDescent="0.3">
@@ -33767,6 +35816,13 @@
       <c r="AI304" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ304" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK304" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL304" s="29"/>
       <c r="AM304" s="29"/>
     </row>
     <row r="305" spans="1:39" x14ac:dyDescent="0.3">
@@ -33875,6 +35931,13 @@
       <c r="AI305" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ305" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK305" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL305" s="29"/>
       <c r="AM305" s="29"/>
     </row>
     <row r="306" spans="1:39" x14ac:dyDescent="0.3">
@@ -33983,6 +36046,13 @@
       <c r="AI306" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ306" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK306" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL306" s="29"/>
       <c r="AM306" s="29"/>
     </row>
     <row r="307" spans="1:39" x14ac:dyDescent="0.3">
@@ -34091,6 +36161,13 @@
       <c r="AI307" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ307" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK307" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL307" s="29"/>
       <c r="AM307" s="29"/>
     </row>
     <row r="308" spans="1:39" x14ac:dyDescent="0.3">
@@ -34199,6 +36276,13 @@
       <c r="AI308" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ308" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK308" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL308" s="29"/>
       <c r="AM308" s="29"/>
     </row>
     <row r="309" spans="1:39" x14ac:dyDescent="0.3">
@@ -34307,6 +36391,13 @@
       <c r="AI309" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ309" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK309" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL309" s="29"/>
       <c r="AM309" s="29"/>
     </row>
     <row r="310" spans="1:39" x14ac:dyDescent="0.3">
@@ -34415,6 +36506,13 @@
       <c r="AI310" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ310" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK310" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL310" s="29"/>
       <c r="AM310" s="29"/>
     </row>
     <row r="311" spans="1:39" x14ac:dyDescent="0.3">
@@ -34523,6 +36621,13 @@
       <c r="AI311" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ311" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK311" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL311" s="29"/>
       <c r="AM311" s="29"/>
     </row>
     <row r="312" spans="1:39" x14ac:dyDescent="0.3">
@@ -34619,6 +36724,13 @@
       <c r="AI312" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ312" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK312" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL312" s="29"/>
       <c r="AM312" s="29"/>
     </row>
     <row r="313" spans="1:39" x14ac:dyDescent="0.3">
@@ -34730,6 +36842,10 @@
       <c r="AJ313" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AK313" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL313" s="29"/>
       <c r="AM313" s="29"/>
     </row>
     <row r="314" spans="1:39" x14ac:dyDescent="0.3">
@@ -34838,6 +36954,13 @@
       <c r="AI314" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ314" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK314" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL314" s="29"/>
       <c r="AM314" s="29"/>
     </row>
     <row r="315" spans="1:39" x14ac:dyDescent="0.3">
@@ -34946,6 +37069,13 @@
       <c r="AI315" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ315" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK315" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL315" s="29"/>
       <c r="AM315" s="29"/>
     </row>
     <row r="316" spans="1:39" x14ac:dyDescent="0.3">
@@ -35054,9 +37184,13 @@
       <c r="AI316" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ316" t="b">
+        <v>0</v>
+      </c>
       <c r="AK316" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AL316" s="29"/>
       <c r="AM316" s="29"/>
     </row>
     <row r="317" spans="1:39" x14ac:dyDescent="0.3">
@@ -35165,6 +37299,13 @@
       <c r="AI317" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ317" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK317" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL317" s="29"/>
       <c r="AM317" s="29"/>
     </row>
     <row r="318" spans="1:39" x14ac:dyDescent="0.3">
@@ -35273,6 +37414,13 @@
       <c r="AI318" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ318" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK318" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL318" s="29"/>
       <c r="AM318" s="29"/>
     </row>
     <row r="319" spans="1:39" x14ac:dyDescent="0.3">
@@ -35381,6 +37529,13 @@
       <c r="AI319" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ319" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK319" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL319" s="29"/>
       <c r="AM319" s="29"/>
     </row>
     <row r="320" spans="1:39" x14ac:dyDescent="0.3">
@@ -35489,6 +37644,13 @@
       <c r="AI320" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ320" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK320" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL320" s="29"/>
       <c r="AM320" s="29"/>
     </row>
     <row r="321" spans="1:39" x14ac:dyDescent="0.3">
@@ -35597,6 +37759,13 @@
       <c r="AI321" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ321" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK321" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL321" s="29"/>
       <c r="AM321" s="29"/>
     </row>
     <row r="322" spans="1:39" x14ac:dyDescent="0.3">
@@ -35705,6 +37874,13 @@
       <c r="AI322" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ322" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK322" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL322" s="29"/>
       <c r="AM322" s="29"/>
     </row>
     <row r="323" spans="1:39" x14ac:dyDescent="0.3">
@@ -35813,6 +37989,13 @@
       <c r="AI323" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ323" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK323" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL323" s="29"/>
       <c r="AM323" s="29"/>
     </row>
     <row r="324" spans="1:39" x14ac:dyDescent="0.3">
@@ -35921,6 +38104,13 @@
       <c r="AI324" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ324" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK324" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL324" s="29"/>
       <c r="AM324" s="29"/>
     </row>
     <row r="325" spans="1:39" x14ac:dyDescent="0.3">
@@ -36029,6 +38219,13 @@
       <c r="AI325" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ325" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK325" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL325" s="29"/>
       <c r="AM325" s="29"/>
     </row>
     <row r="326" spans="1:39" x14ac:dyDescent="0.3">
@@ -36137,6 +38334,13 @@
       <c r="AI326" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ326" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK326" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL326" s="29"/>
       <c r="AM326" s="29"/>
     </row>
     <row r="327" spans="1:39" x14ac:dyDescent="0.3">
@@ -36245,6 +38449,13 @@
       <c r="AI327" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ327" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK327" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL327" s="29"/>
       <c r="AM327" s="29"/>
     </row>
     <row r="328" spans="1:39" x14ac:dyDescent="0.3">
@@ -36353,6 +38564,13 @@
       <c r="AI328" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ328" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK328" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL328" s="29"/>
       <c r="AM328" s="29"/>
     </row>
     <row r="329" spans="1:39" x14ac:dyDescent="0.3">
@@ -36461,6 +38679,13 @@
       <c r="AI329" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ329" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK329" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL329" s="29"/>
       <c r="AM329" s="29"/>
     </row>
     <row r="330" spans="1:39" x14ac:dyDescent="0.3">
@@ -36569,6 +38794,13 @@
       <c r="AI330" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ330" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK330" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL330" s="29"/>
       <c r="AM330" s="29"/>
     </row>
     <row r="331" spans="1:39" x14ac:dyDescent="0.3">
@@ -36677,6 +38909,13 @@
       <c r="AI331" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ331" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK331" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL331" s="29"/>
       <c r="AM331" s="29"/>
     </row>
     <row r="332" spans="1:39" x14ac:dyDescent="0.3">
@@ -36785,6 +39024,13 @@
       <c r="AI332" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ332" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK332" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL332" s="29"/>
       <c r="AM332" s="29"/>
     </row>
     <row r="333" spans="1:39" x14ac:dyDescent="0.3">
@@ -36893,6 +39139,13 @@
       <c r="AI333" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ333" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK333" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL333" s="29"/>
       <c r="AM333" s="29"/>
     </row>
     <row r="334" spans="1:39" x14ac:dyDescent="0.3">
@@ -37001,6 +39254,13 @@
       <c r="AI334" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ334" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK334" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL334" s="29"/>
       <c r="AM334" s="29"/>
     </row>
     <row r="335" spans="1:39" x14ac:dyDescent="0.3">
@@ -37109,6 +39369,13 @@
       <c r="AI335" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ335" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK335" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL335" s="29"/>
       <c r="AM335" s="29"/>
     </row>
     <row r="336" spans="1:39" x14ac:dyDescent="0.3">
@@ -37217,6 +39484,13 @@
       <c r="AI336" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ336" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK336" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL336" s="29"/>
       <c r="AM336" s="29"/>
     </row>
     <row r="337" spans="1:39" x14ac:dyDescent="0.3">
@@ -37325,6 +39599,13 @@
       <c r="AI337" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ337" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK337" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL337" s="29"/>
       <c r="AM337" s="29"/>
     </row>
     <row r="338" spans="1:39" x14ac:dyDescent="0.3">
@@ -37433,6 +39714,13 @@
       <c r="AI338" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ338" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK338" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL338" s="29"/>
       <c r="AM338" s="29"/>
     </row>
     <row r="339" spans="1:39" x14ac:dyDescent="0.3">
@@ -37541,6 +39829,13 @@
       <c r="AI339" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ339" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK339" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL339" s="29"/>
       <c r="AM339" s="29"/>
     </row>
     <row r="340" spans="1:39" x14ac:dyDescent="0.3">
@@ -37649,6 +39944,13 @@
       <c r="AI340" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ340" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK340" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL340" s="29"/>
       <c r="AM340" s="29"/>
     </row>
     <row r="341" spans="1:39" x14ac:dyDescent="0.3">
@@ -37757,6 +40059,13 @@
       <c r="AI341" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ341" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK341" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL341" s="29"/>
       <c r="AM341" s="29"/>
     </row>
     <row r="342" spans="1:39" x14ac:dyDescent="0.3">
@@ -37865,6 +40174,13 @@
       <c r="AI342" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ342" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK342" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL342" s="29"/>
       <c r="AM342" s="29"/>
     </row>
     <row r="343" spans="1:39" x14ac:dyDescent="0.3">
@@ -37961,6 +40277,13 @@
       <c r="AI343" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ343" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK343" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL343" s="29"/>
       <c r="AM343" s="29"/>
     </row>
     <row r="344" spans="1:39" x14ac:dyDescent="0.3">
@@ -38070,6 +40393,13 @@
       <c r="AI344" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ344" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK344" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL344" s="29"/>
       <c r="AM344" s="29"/>
     </row>
     <row r="345" spans="1:39" x14ac:dyDescent="0.3">
@@ -38179,6 +40509,13 @@
       <c r="AI345" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ345" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK345" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL345" s="29"/>
       <c r="AM345" s="29"/>
     </row>
     <row r="346" spans="1:39" x14ac:dyDescent="0.3">
@@ -38291,6 +40628,10 @@
       <c r="AJ346" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AK346" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL346" s="29"/>
       <c r="AM346" s="29"/>
     </row>
     <row r="347" spans="1:39" x14ac:dyDescent="0.3">
@@ -38400,6 +40741,13 @@
       <c r="AI347" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ347" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK347" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL347" s="29"/>
       <c r="AM347" s="29"/>
     </row>
     <row r="348" spans="1:39" x14ac:dyDescent="0.3">
@@ -38509,6 +40857,13 @@
       <c r="AI348" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ348" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK348" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL348" s="29"/>
       <c r="AM348" s="29"/>
     </row>
     <row r="349" spans="1:39" x14ac:dyDescent="0.3">
@@ -38618,6 +40973,13 @@
       <c r="AI349" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ349" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK349" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL349" s="29"/>
       <c r="AM349" s="29"/>
     </row>
     <row r="350" spans="1:39" x14ac:dyDescent="0.3">
@@ -38727,6 +41089,13 @@
       <c r="AI350" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ350" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK350" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL350" s="29"/>
       <c r="AM350" s="29"/>
     </row>
     <row r="351" spans="1:39" x14ac:dyDescent="0.3">
@@ -38836,9 +41205,13 @@
       <c r="AI351" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ351" t="b">
+        <v>0</v>
+      </c>
       <c r="AK351" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AL351" s="29"/>
       <c r="AM351" s="29"/>
     </row>
     <row r="352" spans="1:39" x14ac:dyDescent="0.3">
@@ -38948,6 +41321,13 @@
       <c r="AI352" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ352" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK352" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL352" s="29"/>
       <c r="AM352" s="29"/>
     </row>
     <row r="353" spans="1:39" x14ac:dyDescent="0.3">
@@ -39057,6 +41437,13 @@
       <c r="AI353" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ353" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK353" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL353" s="29"/>
       <c r="AM353" s="29"/>
     </row>
     <row r="354" spans="1:39" x14ac:dyDescent="0.3">
@@ -39166,6 +41553,13 @@
       <c r="AI354" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ354" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK354" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL354" s="29"/>
       <c r="AM354" s="29"/>
     </row>
     <row r="355" spans="1:39" x14ac:dyDescent="0.3">
@@ -39275,6 +41669,13 @@
       <c r="AI355" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ355" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK355" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL355" s="29"/>
       <c r="AM355" s="29"/>
     </row>
     <row r="356" spans="1:39" x14ac:dyDescent="0.3">
@@ -39384,6 +41785,13 @@
       <c r="AI356" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ356" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK356" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL356" s="29"/>
       <c r="AM356" s="29"/>
     </row>
     <row r="357" spans="1:39" x14ac:dyDescent="0.3">
@@ -39493,6 +41901,13 @@
       <c r="AI357" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ357" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK357" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL357" s="29"/>
       <c r="AM357" s="29"/>
     </row>
     <row r="358" spans="1:39" x14ac:dyDescent="0.3">
@@ -39602,6 +42017,13 @@
       <c r="AI358" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ358" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK358" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL358" s="29"/>
       <c r="AM358" s="29"/>
     </row>
     <row r="359" spans="1:39" x14ac:dyDescent="0.3">
@@ -39711,6 +42133,13 @@
       <c r="AI359" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ359" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK359" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL359" s="29"/>
       <c r="AM359" s="29"/>
     </row>
     <row r="360" spans="1:39" x14ac:dyDescent="0.3">
@@ -39820,6 +42249,13 @@
       <c r="AI360" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ360" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK360" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL360" s="29"/>
       <c r="AM360" s="29"/>
     </row>
     <row r="361" spans="1:39" x14ac:dyDescent="0.3">
@@ -39929,6 +42365,13 @@
       <c r="AI361" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ361" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK361" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL361" s="29"/>
       <c r="AM361" s="29"/>
     </row>
     <row r="362" spans="1:39" x14ac:dyDescent="0.3">
@@ -40038,6 +42481,13 @@
       <c r="AI362" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ362" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK362" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL362" s="29"/>
       <c r="AM362" s="29"/>
     </row>
     <row r="363" spans="1:39" x14ac:dyDescent="0.3">
@@ -40147,6 +42597,13 @@
       <c r="AI363" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ363" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK363" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL363" s="29"/>
       <c r="AM363" s="29"/>
     </row>
     <row r="364" spans="1:39" x14ac:dyDescent="0.3">
@@ -40256,6 +42713,13 @@
       <c r="AI364" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ364" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK364" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL364" s="29"/>
       <c r="AM364" s="29"/>
     </row>
     <row r="365" spans="1:39" x14ac:dyDescent="0.3">
@@ -40365,6 +42829,13 @@
       <c r="AI365" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ365" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK365" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL365" s="29"/>
       <c r="AM365" s="29"/>
     </row>
     <row r="366" spans="1:39" x14ac:dyDescent="0.3">
@@ -40474,6 +42945,13 @@
       <c r="AI366" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ366" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK366" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL366" s="29"/>
       <c r="AM366" s="29"/>
     </row>
     <row r="367" spans="1:39" x14ac:dyDescent="0.3">
@@ -40583,6 +43061,13 @@
       <c r="AI367" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ367" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK367" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL367" s="29"/>
       <c r="AM367" s="29"/>
     </row>
     <row r="368" spans="1:39" x14ac:dyDescent="0.3">
@@ -40692,6 +43177,13 @@
       <c r="AI368" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ368" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK368" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL368" s="29"/>
       <c r="AM368" s="29"/>
     </row>
     <row r="369" spans="1:39" x14ac:dyDescent="0.3">
@@ -40801,6 +43293,13 @@
       <c r="AI369" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ369" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK369" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL369" s="29"/>
       <c r="AM369" s="29"/>
     </row>
     <row r="370" spans="1:39" x14ac:dyDescent="0.3">
@@ -40910,6 +43409,13 @@
       <c r="AI370" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ370" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK370" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL370" s="29"/>
       <c r="AM370" s="29"/>
     </row>
     <row r="371" spans="1:39" x14ac:dyDescent="0.3">
@@ -41019,6 +43525,13 @@
       <c r="AI371" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ371" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK371" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL371" s="29"/>
       <c r="AM371" s="29"/>
     </row>
     <row r="372" spans="1:39" x14ac:dyDescent="0.3">
@@ -41128,6 +43641,13 @@
       <c r="AI372" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ372" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK372" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL372" s="29"/>
       <c r="AM372" s="29"/>
     </row>
     <row r="373" spans="1:39" x14ac:dyDescent="0.3">
@@ -41237,6 +43757,13 @@
       <c r="AI373" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ373" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK373" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL373" s="29"/>
       <c r="AM373" s="29"/>
     </row>
     <row r="374" spans="1:39" x14ac:dyDescent="0.3">
@@ -41332,6 +43859,13 @@
       <c r="AI374" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ374" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK374" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL374" s="29"/>
       <c r="AM374" s="29"/>
     </row>
     <row r="375" spans="1:39" x14ac:dyDescent="0.3">
@@ -41444,6 +43978,10 @@
       <c r="AJ375" t="b">
         <v>1</v>
       </c>
+      <c r="AK375" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL375" s="29"/>
       <c r="AM375" s="29"/>
     </row>
     <row r="376" spans="1:39" x14ac:dyDescent="0.3">
@@ -41553,6 +44091,13 @@
       <c r="AI376" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ376" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK376" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL376" s="29"/>
       <c r="AM376" s="29"/>
     </row>
     <row r="377" spans="1:39" x14ac:dyDescent="0.3">
@@ -41662,6 +44207,13 @@
       <c r="AI377" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ377" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK377" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL377" s="29"/>
       <c r="AM377" s="29"/>
     </row>
     <row r="378" spans="1:39" x14ac:dyDescent="0.3">
@@ -41771,6 +44323,13 @@
       <c r="AI378" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ378" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK378" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL378" s="29"/>
       <c r="AM378" s="29"/>
     </row>
     <row r="379" spans="1:39" x14ac:dyDescent="0.3">
@@ -41880,6 +44439,13 @@
       <c r="AI379" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ379" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK379" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL379" s="29"/>
       <c r="AM379" s="29"/>
     </row>
     <row r="380" spans="1:39" x14ac:dyDescent="0.3">
@@ -41989,6 +44555,13 @@
       <c r="AI380" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ380" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK380" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL380" s="29"/>
       <c r="AM380" s="29"/>
     </row>
     <row r="381" spans="1:39" x14ac:dyDescent="0.3">
@@ -42098,6 +44671,13 @@
       <c r="AI381" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ381" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK381" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL381" s="29"/>
       <c r="AM381" s="29"/>
     </row>
     <row r="382" spans="1:39" x14ac:dyDescent="0.3">
@@ -42207,6 +44787,13 @@
       <c r="AI382" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ382" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK382" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL382" s="29"/>
       <c r="AM382" s="29"/>
     </row>
     <row r="383" spans="1:39" x14ac:dyDescent="0.3">
@@ -42316,6 +44903,13 @@
       <c r="AI383" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ383" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK383" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL383" s="29"/>
       <c r="AM383" s="29"/>
     </row>
     <row r="384" spans="1:39" x14ac:dyDescent="0.3">
@@ -42425,6 +45019,13 @@
       <c r="AI384" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ384" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK384" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL384" s="29"/>
       <c r="AM384" s="29"/>
     </row>
     <row r="385" spans="1:39" x14ac:dyDescent="0.3">
@@ -42534,6 +45135,13 @@
       <c r="AI385" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ385" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK385" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL385" s="29"/>
       <c r="AM385" s="29"/>
     </row>
     <row r="386" spans="1:39" x14ac:dyDescent="0.3">
@@ -42643,6 +45251,13 @@
       <c r="AI386" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ386" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK386" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL386" s="29"/>
       <c r="AM386" s="29"/>
     </row>
     <row r="387" spans="1:39" x14ac:dyDescent="0.3">
@@ -42752,6 +45367,13 @@
       <c r="AI387" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ387" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK387" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL387" s="29"/>
       <c r="AM387" s="29"/>
     </row>
     <row r="388" spans="1:39" x14ac:dyDescent="0.3">
@@ -42861,9 +45483,13 @@
       <c r="AI388" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ388" t="b">
+        <v>0</v>
+      </c>
       <c r="AK388" s="29" t="b">
         <v>1</v>
       </c>
+      <c r="AL388" s="29"/>
       <c r="AM388" s="29"/>
     </row>
     <row r="389" spans="1:39" x14ac:dyDescent="0.3">
@@ -42973,6 +45599,13 @@
       <c r="AI389" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ389" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK389" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL389" s="29"/>
       <c r="AM389" s="29"/>
     </row>
     <row r="390" spans="1:39" x14ac:dyDescent="0.3">
@@ -43082,6 +45715,13 @@
       <c r="AI390" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ390" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK390" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL390" s="29"/>
       <c r="AM390" s="29"/>
     </row>
     <row r="391" spans="1:39" x14ac:dyDescent="0.3">
@@ -43191,6 +45831,13 @@
       <c r="AI391" s="26" t="b">
         <v>1</v>
       </c>
+      <c r="AJ391" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK391" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL391" s="29"/>
       <c r="AM391" s="29"/>
     </row>
     <row r="392" spans="1:39" x14ac:dyDescent="0.3">
@@ -43300,6 +45947,13 @@
       <c r="AI392" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ392" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK392" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL392" s="29"/>
       <c r="AM392" s="29"/>
     </row>
     <row r="393" spans="1:39" x14ac:dyDescent="0.3">
@@ -43409,6 +46063,13 @@
       <c r="AI393" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ393" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK393" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL393" s="29"/>
       <c r="AM393" s="29"/>
     </row>
     <row r="394" spans="1:39" x14ac:dyDescent="0.3">
@@ -43518,6 +46179,13 @@
       <c r="AI394" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ394" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK394" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL394" s="29"/>
       <c r="AM394" s="29"/>
     </row>
     <row r="395" spans="1:39" x14ac:dyDescent="0.3">
@@ -43627,6 +46295,13 @@
       <c r="AI395" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ395" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK395" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL395" s="29"/>
       <c r="AM395" s="29"/>
     </row>
     <row r="396" spans="1:39" x14ac:dyDescent="0.3">
@@ -43736,6 +46411,13 @@
       <c r="AI396" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ396" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK396" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL396" s="29"/>
       <c r="AM396" s="29"/>
     </row>
     <row r="397" spans="1:39" x14ac:dyDescent="0.3">
@@ -43845,6 +46527,13 @@
       <c r="AI397" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ397" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK397" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL397" s="29"/>
       <c r="AM397" s="29"/>
     </row>
     <row r="398" spans="1:39" x14ac:dyDescent="0.3">
@@ -43954,6 +46643,13 @@
       <c r="AI398" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ398" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK398" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL398" s="29"/>
       <c r="AM398" s="29"/>
     </row>
     <row r="399" spans="1:39" x14ac:dyDescent="0.3">
@@ -44063,6 +46759,13 @@
       <c r="AI399" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ399" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK399" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL399" s="29"/>
       <c r="AM399" s="29"/>
     </row>
     <row r="400" spans="1:39" x14ac:dyDescent="0.3">
@@ -44172,6 +46875,13 @@
       <c r="AI400" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ400" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK400" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL400" s="29"/>
       <c r="AM400" s="29"/>
     </row>
     <row r="401" spans="1:39" x14ac:dyDescent="0.3">
@@ -44281,6 +46991,13 @@
       <c r="AI401" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ401" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK401" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL401" s="29"/>
       <c r="AM401" s="29"/>
     </row>
     <row r="402" spans="1:39" x14ac:dyDescent="0.3">
@@ -44390,6 +47107,13 @@
       <c r="AI402" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ402" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK402" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL402" s="29"/>
       <c r="AM402" s="29"/>
     </row>
     <row r="403" spans="1:39" x14ac:dyDescent="0.3">
@@ -44499,6 +47223,13 @@
       <c r="AI403" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ403" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK403" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL403" s="29"/>
       <c r="AM403" s="29"/>
     </row>
     <row r="404" spans="1:39" x14ac:dyDescent="0.3">
@@ -44608,6 +47339,13 @@
       <c r="AI404" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ404" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK404" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL404" s="29"/>
       <c r="AM404" s="29"/>
     </row>
     <row r="405" spans="1:39" x14ac:dyDescent="0.3">
@@ -44703,6 +47441,13 @@
       <c r="AI405" s="26" t="b">
         <v>0</v>
       </c>
+      <c r="AJ405" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK405" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL405" s="29"/>
       <c r="AM405" s="29"/>
     </row>
   </sheetData>
